--- a/2.组合逻辑设计/交通灯控制系统状态机逻辑自动生成(2020-4-2).xlsx
+++ b/2.组合逻辑设计/交通灯控制系统状态机逻辑自动生成(2020-4-2).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\百度云同步盘\0常用文件\J教学资料\实验mooc\计算机硬件系统设计\红绿灯实验\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="组合逻辑真值表" sheetId="3" r:id="rId1"/>
@@ -18,12 +13,93 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">输出信号表达式自动生成!$A$1:$Y$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>输入 （填1或0，不填为无关项x）</t>
+  </si>
+  <si>
+    <t>输出    (只填写为1的情况)</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>EMERG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>In10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>In11</t>
+    </r>
+  </si>
+  <si>
+    <t>In12</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N0</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
   <si>
     <t>Out9</t>
   </si>
@@ -34,21 +110,17 @@
     <t>Out11</t>
   </si>
   <si>
-    <t>最小项表达式</t>
-  </si>
-  <si>
-    <t>输出信号逻辑表达式-&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>In12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里是输出信号的逻辑表达式，复制到Logisim中即可，注意不要复制excel公式，要复制对应的值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>Out12</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>只填写为0和为1的情况，无关项不填， 注意输入输出</t>
     </r>
     <r>
@@ -57,7 +129,6 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>变量名可自行更改</t>
@@ -68,7 +139,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，不用的列不填或隐藏，行数不够上方还有隐藏行，所有</t>
@@ -79,138 +149,42 @@
         <sz val="11"/>
         <color rgb="FFC00000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表格都有帮助提示，哪里不懂点哪里</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>In10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <t>注意从一个状态到另外一个状态的切换要填写完整，不要漏填自己到自己的状态，也不要漏填切换条件分别为0和1的情况，各切换条件之间不要有二义性</t>
   </si>
   <si>
-    <r>
-      <t>In11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <t>注意这个表行数肯定是够的，如果不够请思考如何合并某些行，不要尝试增加行！</t>
   </si>
   <si>
-    <t>Out12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>最小项表达式</t>
   </si>
   <si>
-    <t>输入 （填1或0，不填为无关项x）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出    (只填写为1的情况)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>输出信号逻辑表达式-&gt;&gt;&gt;</t>
   </si>
   <si>
     <t>本表格不允许编辑，如实在好奇，在审阅菜单中撤销工作表保护</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>S0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>T3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>T4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMERG</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>N2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>N1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>N0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意从一个状态到另外一个状态的切换要填写完整，不要漏填自己到自己的状态，也不要漏填切换条件分别为0和1的情况，各切换条件之间不要有二义性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>这里是输出信号的逻辑表达式，复制到Logisim中即可，注意不要复制excel公式，要复制对应的值</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,26 +193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -246,7 +210,13 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -254,7 +224,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -262,20 +231,53 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Black"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -283,57 +285,155 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Black"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,19 +442,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39988402966399123"/>
+        <fgColor theme="9" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79989013336588644"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,30 +478,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39988402966399123"/>
+        <fgColor theme="7" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -424,32 +710,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -499,6 +759,17 @@
         <color auto="1"/>
       </left>
       <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -560,19 +831,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -588,12 +846,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,36 +925,305 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -676,116 +1231,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
-        <color theme="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
@@ -800,22 +1381,19 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
     </dxf>
@@ -823,23 +1401,20 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF0000FF"/>
-      <color rgb="FFFF7C80"/>
+      <color rgb="000000FF"/>
+      <color rgb="00FF7C80"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -861,7 +1436,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -879,7 +1454,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7000875" y="5800725"/>
+          <a:off x="5781675" y="3810000"/>
           <a:ext cx="1057275" cy="568960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1144,974 +1719,1010 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA13" sqref="AA13"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="8.625" style="8" customWidth="1"/>
-    <col min="5" max="8" width="8.625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="9" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="23.125" style="9" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="8" customWidth="1"/>
-    <col min="14" max="15" width="8.625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="9" customWidth="1"/>
-    <col min="17" max="23" width="8.625" style="8" customWidth="1"/>
-    <col min="24" max="24" width="8.625" style="9" customWidth="1"/>
+    <col min="1" max="4" width="8.625" style="17" customWidth="1"/>
+    <col min="5" max="8" width="8.625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="18" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="18" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="18" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="23.125" style="18" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="17" customWidth="1"/>
+    <col min="14" max="15" width="8.625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="18" customWidth="1"/>
+    <col min="17" max="23" width="8.625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="8.625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" ht="24" customHeight="1" spans="1:24">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:24">
+      <c r="A2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29" t="s">
+      <c r="L2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="M2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:24">
+      <c r="A3" s="22">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="37">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:24">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:24">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:24">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:24">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:24">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:24">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1" spans="1:24">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+    </row>
+    <row r="23" ht="16.5" hidden="1" customHeight="1" spans="1:24">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+    </row>
+    <row r="24" ht="16.5" hidden="1" customHeight="1" spans="1:24">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+    </row>
+    <row r="25" ht="16.5" hidden="1" customHeight="1" spans="1:24">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+    </row>
+    <row r="26" ht="16.5" hidden="1" customHeight="1" spans="1:24">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+    </row>
+    <row r="27" ht="16.5" hidden="1" customHeight="1" spans="1:24">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+    </row>
+    <row r="28" ht="16.5" hidden="1" customHeight="1" spans="1:24">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+    </row>
+    <row r="29" ht="16.5" hidden="1" customHeight="1" spans="1:24">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+    </row>
+    <row r="30" ht="16.5" hidden="1" customHeight="1" spans="1:24">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+    </row>
+    <row r="31" ht="16.5" hidden="1" customHeight="1" spans="1:24">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+    </row>
+    <row r="32" ht="15" hidden="1" spans="5:12">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" ht="28.5" customHeight="1" spans="1:24">
+      <c r="A33" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="1:24">
+      <c r="A34" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="24" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+    </row>
+    <row r="37" ht="39" customHeight="1" spans="5:19">
+      <c r="E37" s="29"/>
+      <c r="F37" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20">
-        <v>0</v>
-      </c>
-      <c r="N3" s="19">
-        <v>0</v>
-      </c>
-      <c r="O3" s="19">
-        <v>0</v>
-      </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-    </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-    </row>
-    <row r="10" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-    </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-    </row>
-    <row r="14" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-    </row>
-    <row r="15" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-    </row>
-    <row r="16" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-    </row>
-    <row r="17" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-    </row>
-    <row r="18" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-    </row>
-    <row r="19" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-    </row>
-    <row r="20" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-    </row>
-    <row r="21" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-    </row>
-    <row r="22" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-    </row>
-    <row r="23" spans="1:24" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-    </row>
-    <row r="24" spans="1:24" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-    </row>
-    <row r="25" spans="1:24" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-    </row>
-    <row r="26" spans="1:24" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-    </row>
-    <row r="27" spans="1:24" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-    </row>
-    <row r="28" spans="1:24" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-    </row>
-    <row r="29" spans="1:24" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-    </row>
-    <row r="30" spans="1:24" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-    </row>
-    <row r="31" spans="1:24" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-    </row>
-    <row r="32" spans="1:24" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-    </row>
-    <row r="33" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-    </row>
-    <row r="34" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="41"/>
+    </row>
+    <row r="38" ht="18" spans="5:19">
+      <c r="E38" s="29"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="41"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -2124,43 +2735,43 @@
     <mergeCell ref="A33:X33"/>
     <mergeCell ref="A34:X34"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A3:X31">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M32:P32 M35:P1048576">
-    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="1">
+  <conditionalFormatting sqref="A3:L31">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="16">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:P32 M35:P36 M39:P1048576">
+    <cfRule type="containsText" dxfId="2" priority="15" operator="between" text="1">
       <formula>NOT(ISERROR(SEARCH("1",M32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q32:X32 Q35:X1048576">
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="1">
+  <conditionalFormatting sqref="Q32:X32 Q35:X36 S37:X38 Q39:X1048576">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="between" text="1">
       <formula>NOT(ISERROR(SEARCH("1",Q32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:L31">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="16">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations xWindow="202" yWindow="408" count="7">
+  <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出" prompt="输出，只填为1的情况，为零或无关项x不填" sqref="M21:X31"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输入信号" prompt="可修改信号名，默认为In#，与普通真值表不同，这个真值表输入可填写无关项x，为简化填写，不填写数据等同于无关项" sqref="A1:L31"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="状态机现态二进制" prompt="状态机现态二进制表示，由前列计算得到" sqref="B35:C1048576 B32:C32 A32:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="状态机现态二进制" prompt="状态机现态二进制表示，由前列计算得到" sqref="B32:C32 A32:A1048576 B35:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出" prompt="输出，只填为1的情况，为零或无关项x不填&#10;&#10;不需要使用的输出列可清空数据后隐藏！！" sqref="M1:X20"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="状态变化控制信号" prompt="决定状态机迁移，如无关填“X”，输入信号名默认为Cx，可自行更改为和logisim自动生成电路的输入信号标签名一致！" sqref="E32 E35:L1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="状态机现态" prompt="状态机现态" sqref="D32 D35:D1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出" prompt="输出，只填为1的情况，为零不填" sqref="M32:X32 M35:X1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出" prompt="输出，只填为1的情况，为零或无关项x不填_x000a__x000a_不需要使用的输出列可清空数据后隐藏！！" sqref="M1:X20"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输入信号" prompt="可修改信号名，默认为In#，与普通真值表不同，这个真值表输入可填写无关项x，为简化填写，不填写数据等同于无关项" sqref="A1:L31"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -2168,10 +2779,11 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="12" width="4.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.125" style="1" customWidth="1"/>
@@ -2182,2999 +2794,2999 @@
     <col min="26" max="26" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="str">
+    <row r="1" ht="24" customHeight="1" spans="1:25">
+      <c r="A1" s="2" t="str">
         <f>组合逻辑真值表!A2</f>
         <v>S2</v>
       </c>
-      <c r="B1" s="15" t="str">
+      <c r="B1" s="2" t="str">
         <f>组合逻辑真值表!B2</f>
         <v>S1</v>
       </c>
-      <c r="C1" s="15" t="str">
+      <c r="C1" s="2" t="str">
         <f>组合逻辑真值表!C2</f>
         <v>S0</v>
       </c>
-      <c r="D1" s="15" t="str">
+      <c r="D1" s="2" t="str">
         <f>组合逻辑真值表!D2</f>
         <v>T1</v>
       </c>
-      <c r="E1" s="15" t="str">
+      <c r="E1" s="2" t="str">
         <f>组合逻辑真值表!E2</f>
         <v>T2</v>
       </c>
-      <c r="F1" s="15" t="str">
+      <c r="F1" s="2" t="str">
         <f>组合逻辑真值表!F2</f>
         <v>T3</v>
       </c>
-      <c r="G1" s="15" t="str">
+      <c r="G1" s="2" t="str">
         <f>组合逻辑真值表!G2</f>
         <v>T4</v>
       </c>
-      <c r="H1" s="15" t="str">
+      <c r="H1" s="2" t="str">
         <f>组合逻辑真值表!H2</f>
         <v>EMERG</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="2">
         <f>组合逻辑真值表!I2</f>
         <v>0</v>
       </c>
-      <c r="J1" s="15" t="str">
+      <c r="J1" s="2" t="str">
         <f>组合逻辑真值表!J2</f>
         <v>In10</v>
       </c>
-      <c r="K1" s="15" t="str">
+      <c r="K1" s="2" t="str">
         <f>组合逻辑真值表!K2</f>
         <v>In11</v>
       </c>
-      <c r="L1" s="15" t="str">
+      <c r="L1" s="2" t="str">
         <f>组合逻辑真值表!L2</f>
         <v>In12</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="14" t="str">
+      <c r="M1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="10" t="str">
         <f>组合逻辑真值表!M2</f>
         <v>N2</v>
       </c>
-      <c r="O1" s="14" t="str">
+      <c r="O1" s="10" t="str">
         <f>组合逻辑真值表!N2</f>
         <v>N1</v>
       </c>
-      <c r="P1" s="14" t="str">
+      <c r="P1" s="10" t="str">
         <f>组合逻辑真值表!O2</f>
         <v>N0</v>
       </c>
-      <c r="Q1" s="14" t="str">
+      <c r="Q1" s="10" t="str">
         <f>组合逻辑真值表!P2</f>
         <v>Y1</v>
       </c>
-      <c r="R1" s="14" t="str">
+      <c r="R1" s="10" t="str">
         <f>组合逻辑真值表!Q2</f>
         <v>G1</v>
       </c>
-      <c r="S1" s="14" t="str">
+      <c r="S1" s="10" t="str">
         <f>组合逻辑真值表!R2</f>
         <v>R2</v>
       </c>
-      <c r="T1" s="14" t="str">
+      <c r="T1" s="10" t="str">
         <f>组合逻辑真值表!S2</f>
         <v>Y2</v>
       </c>
-      <c r="U1" s="14" t="str">
+      <c r="U1" s="10" t="str">
         <f>组合逻辑真值表!T2</f>
         <v>G2</v>
       </c>
-      <c r="V1" s="14" t="str">
+      <c r="V1" s="10" t="str">
         <f>组合逻辑真值表!U2</f>
         <v>Out9</v>
       </c>
-      <c r="W1" s="14" t="str">
+      <c r="W1" s="10" t="str">
         <f>组合逻辑真值表!V2</f>
         <v>Out10</v>
       </c>
-      <c r="X1" s="14" t="str">
+      <c r="X1" s="10" t="str">
         <f>组合逻辑真值表!W2</f>
         <v>Out11</v>
       </c>
-      <c r="Y1" s="14" t="str">
+      <c r="Y1" s="10" t="str">
         <f>组合逻辑真值表!X2</f>
         <v>Out12</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="str">
+    <row r="2" ht="15" spans="1:25">
+      <c r="A2" s="3" t="str">
         <f>IF(组合逻辑真值表!A3&lt;&gt;"",IF(组合逻辑真值表!A3=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A3=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v>~S2&amp;</v>
       </c>
-      <c r="B2" s="16" t="str">
+      <c r="B2" s="3" t="str">
         <f>IF(组合逻辑真值表!B3&lt;&gt;"",IF(组合逻辑真值表!B3=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B3=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v>~S1&amp;</v>
       </c>
-      <c r="C2" s="16" t="str">
+      <c r="C2" s="3" t="str">
         <f>IF(组合逻辑真值表!C3&lt;&gt;"",IF(组合逻辑真值表!C3=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C3=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v>~S0&amp;</v>
       </c>
-      <c r="D2" s="16" t="str">
+      <c r="D2" s="3" t="str">
         <f>IF(组合逻辑真值表!D3&lt;&gt;"",IF(组合逻辑真值表!D3=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D3=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v>~T1&amp;</v>
       </c>
-      <c r="E2" s="16" t="str">
+      <c r="E2" s="3" t="str">
         <f>IF(组合逻辑真值表!E3&lt;&gt;"",IF(组合逻辑真值表!E3=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E3=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F2" s="16" t="str">
+      <c r="F2" s="3" t="str">
         <f>IF(组合逻辑真值表!F3&lt;&gt;"",IF(组合逻辑真值表!F3=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F3=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G2" s="16" t="str">
+      <c r="G2" s="3" t="str">
         <f>IF(组合逻辑真值表!G3&lt;&gt;"",IF(组合逻辑真值表!G3=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G3=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H2" s="16" t="str">
+      <c r="H2" s="3" t="str">
         <f>IF(组合逻辑真值表!H3&lt;&gt;"",IF(组合逻辑真值表!H3=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H3=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v>~EMERG&amp;</v>
       </c>
-      <c r="I2" s="16" t="str">
+      <c r="I2" s="3" t="str">
         <f>IF(组合逻辑真值表!I3&lt;&gt;"",IF(组合逻辑真值表!I3=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I3=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J2" s="16" t="str">
+      <c r="J2" s="3" t="str">
         <f>IF(组合逻辑真值表!J3&lt;&gt;"",IF(组合逻辑真值表!J3=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J3=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K2" s="16" t="str">
+      <c r="K2" s="3" t="str">
         <f>IF(组合逻辑真值表!K3&lt;&gt;"",IF(组合逻辑真值表!K3=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K3=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L2" s="16" t="str">
+      <c r="L2" s="3" t="str">
         <f>IF(组合逻辑真值表!L3&lt;&gt;"",IF(组合逻辑真值表!L3=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L3=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M2" s="3" t="str">
+      <c r="M2" s="11" t="str">
         <f>IF(LEN(CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2))=0,"",LEFT(CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2),LEN(CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2))-1))</f>
         <v>~S2&amp;~S1&amp;~S0&amp;~T1&amp;~EMERG</v>
       </c>
-      <c r="N2" s="4" t="str">
+      <c r="N2" s="12" t="str">
         <f>IF(组合逻辑真值表!M3=1,$M2&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O2" s="4" t="str">
+      <c r="O2" s="12" t="str">
         <f>IF(组合逻辑真值表!N3=1,$M2&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P2" s="4" t="str">
+      <c r="P2" s="12" t="str">
         <f>IF(组合逻辑真值表!O3=1,$M2&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q2" s="4" t="str">
+      <c r="Q2" s="12" t="str">
         <f>IF(组合逻辑真值表!P3=1,$M2&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R2" s="4" t="str">
+      <c r="R2" s="12" t="str">
         <f>IF(组合逻辑真值表!Q3=1,$M2&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S2" s="4" t="str">
+      <c r="S2" s="12" t="str">
         <f>IF(组合逻辑真值表!R3=1,$M2&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T2" s="4" t="str">
+      <c r="T2" s="12" t="str">
         <f>IF(组合逻辑真值表!S3=1,$M2&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U2" s="4" t="str">
+      <c r="U2" s="12" t="str">
         <f>IF(组合逻辑真值表!T3=1,$M2&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V2" s="4" t="str">
+      <c r="V2" s="12" t="str">
         <f>IF(组合逻辑真值表!U3=1,$M2&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W2" s="4" t="str">
+      <c r="W2" s="12" t="str">
         <f>IF(组合逻辑真值表!V3=1,$M2&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X2" s="4" t="str">
+      <c r="X2" s="12" t="str">
         <f>IF(组合逻辑真值表!W3=1,$M2&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y2" s="4" t="str">
+      <c r="Y2" s="12" t="str">
         <f>IF(组合逻辑真值表!X3=1,$M2&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="str">
+    <row r="3" spans="1:25">
+      <c r="A3" s="3" t="str">
         <f>IF(组合逻辑真值表!A4&lt;&gt;"",IF(组合逻辑真值表!A4=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A4=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B3" s="16" t="str">
+      <c r="B3" s="3" t="str">
         <f>IF(组合逻辑真值表!B4&lt;&gt;"",IF(组合逻辑真值表!B4=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B4=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C3" s="16" t="str">
+      <c r="C3" s="3" t="str">
         <f>IF(组合逻辑真值表!C4&lt;&gt;"",IF(组合逻辑真值表!C4=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C4=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D3" s="16" t="str">
+      <c r="D3" s="3" t="str">
         <f>IF(组合逻辑真值表!D4&lt;&gt;"",IF(组合逻辑真值表!D4=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D4=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E3" s="16" t="str">
+      <c r="E3" s="3" t="str">
         <f>IF(组合逻辑真值表!E4&lt;&gt;"",IF(组合逻辑真值表!E4=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E4=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F3" s="16" t="str">
+      <c r="F3" s="3" t="str">
         <f>IF(组合逻辑真值表!F4&lt;&gt;"",IF(组合逻辑真值表!F4=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F4=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G3" s="16" t="str">
+      <c r="G3" s="3" t="str">
         <f>IF(组合逻辑真值表!G4&lt;&gt;"",IF(组合逻辑真值表!G4=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G4=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H3" s="16" t="str">
+      <c r="H3" s="3" t="str">
         <f>IF(组合逻辑真值表!H4&lt;&gt;"",IF(组合逻辑真值表!H4=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H4=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I3" s="16" t="str">
+      <c r="I3" s="3" t="str">
         <f>IF(组合逻辑真值表!I4&lt;&gt;"",IF(组合逻辑真值表!I4=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I4=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J3" s="16" t="str">
+      <c r="J3" s="3" t="str">
         <f>IF(组合逻辑真值表!J4&lt;&gt;"",IF(组合逻辑真值表!J4=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J4=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K3" s="16" t="str">
+      <c r="K3" s="3" t="str">
         <f>IF(组合逻辑真值表!K4&lt;&gt;"",IF(组合逻辑真值表!K4=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K4=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L3" s="16" t="str">
+      <c r="L3" s="3" t="str">
         <f>IF(组合逻辑真值表!L4&lt;&gt;"",IF(组合逻辑真值表!L4=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L4=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M3" s="3" t="str">
+      <c r="M3" s="11" t="str">
         <f t="shared" ref="M3:M19" si="0">IF(LEN(CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3))=0,"",LEFT(CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3),LEN(CONCATENATE(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3))-1))</f>
         <v/>
       </c>
-      <c r="N3" s="4" t="str">
+      <c r="N3" s="12" t="str">
         <f>IF(组合逻辑真值表!M4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O3" s="4" t="str">
+      <c r="O3" s="12" t="str">
         <f>IF(组合逻辑真值表!N4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P3" s="4" t="str">
+      <c r="P3" s="12" t="str">
         <f>IF(组合逻辑真值表!O4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q3" s="4" t="str">
+      <c r="Q3" s="12" t="str">
         <f>IF(组合逻辑真值表!P4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R3" s="4" t="str">
+      <c r="R3" s="12" t="str">
         <f>IF(组合逻辑真值表!Q4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S3" s="4" t="str">
+      <c r="S3" s="12" t="str">
         <f>IF(组合逻辑真值表!R4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T3" s="4" t="str">
+      <c r="T3" s="12" t="str">
         <f>IF(组合逻辑真值表!S4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U3" s="4" t="str">
+      <c r="U3" s="12" t="str">
         <f>IF(组合逻辑真值表!T4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V3" s="4" t="str">
+      <c r="V3" s="12" t="str">
         <f>IF(组合逻辑真值表!U4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W3" s="4" t="str">
+      <c r="W3" s="12" t="str">
         <f>IF(组合逻辑真值表!V4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X3" s="4" t="str">
+      <c r="X3" s="12" t="str">
         <f>IF(组合逻辑真值表!W4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y3" s="4" t="str">
+      <c r="Y3" s="12" t="str">
         <f>IF(组合逻辑真值表!X4=1,$M3&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="str">
+    <row r="4" spans="1:25">
+      <c r="A4" s="3" t="str">
         <f>IF(组合逻辑真值表!A5&lt;&gt;"",IF(组合逻辑真值表!A5=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A5=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B4" s="16" t="str">
+      <c r="B4" s="3" t="str">
         <f>IF(组合逻辑真值表!B5&lt;&gt;"",IF(组合逻辑真值表!B5=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B5=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C4" s="16" t="str">
+      <c r="C4" s="3" t="str">
         <f>IF(组合逻辑真值表!C5&lt;&gt;"",IF(组合逻辑真值表!C5=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C5=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D4" s="16" t="str">
+      <c r="D4" s="3" t="str">
         <f>IF(组合逻辑真值表!D5&lt;&gt;"",IF(组合逻辑真值表!D5=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D5=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E4" s="16" t="str">
+      <c r="E4" s="3" t="str">
         <f>IF(组合逻辑真值表!E5&lt;&gt;"",IF(组合逻辑真值表!E5=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E5=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F4" s="16" t="str">
+      <c r="F4" s="3" t="str">
         <f>IF(组合逻辑真值表!F5&lt;&gt;"",IF(组合逻辑真值表!F5=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F5=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G4" s="16" t="str">
+      <c r="G4" s="3" t="str">
         <f>IF(组合逻辑真值表!G5&lt;&gt;"",IF(组合逻辑真值表!G5=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G5=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H4" s="16" t="str">
+      <c r="H4" s="3" t="str">
         <f>IF(组合逻辑真值表!H5&lt;&gt;"",IF(组合逻辑真值表!H5=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H5=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I4" s="16" t="str">
+      <c r="I4" s="3" t="str">
         <f>IF(组合逻辑真值表!I5&lt;&gt;"",IF(组合逻辑真值表!I5=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I5=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J4" s="16" t="str">
+      <c r="J4" s="3" t="str">
         <f>IF(组合逻辑真值表!J5&lt;&gt;"",IF(组合逻辑真值表!J5=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J5=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K4" s="16" t="str">
+      <c r="K4" s="3" t="str">
         <f>IF(组合逻辑真值表!K5&lt;&gt;"",IF(组合逻辑真值表!K5=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K5=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L4" s="16" t="str">
+      <c r="L4" s="3" t="str">
         <f>IF(组合逻辑真值表!L5&lt;&gt;"",IF(组合逻辑真值表!L5=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L5=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M4" s="3" t="str">
+      <c r="M4" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N4" s="4" t="str">
+      <c r="N4" s="12" t="str">
         <f>IF(组合逻辑真值表!M5=1,$M4&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O4" s="4" t="str">
+      <c r="O4" s="12" t="str">
         <f>IF(组合逻辑真值表!N5=1,$M4&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P4" s="4" t="str">
+      <c r="P4" s="12" t="str">
         <f>IF(组合逻辑真值表!O5=1,$M4&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q4" s="4" t="str">
+      <c r="Q4" s="12" t="str">
         <f>IF(组合逻辑真值表!P5=1,$M4&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R4" s="4" t="str">
+      <c r="R4" s="12" t="str">
         <f>IF(组合逻辑真值表!Q5=1,$M4&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S4" s="4" t="str">
+      <c r="S4" s="12" t="str">
         <f>IF(组合逻辑真值表!R5=1,$M4&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T4" s="4" t="str">
+      <c r="T4" s="12" t="str">
         <f>IF(组合逻辑真值表!S5=1,$M4&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U4" s="4" t="str">
+      <c r="U4" s="12" t="str">
         <f>IF(组合逻辑真值表!T5=1,$M4&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V4" s="4" t="str">
+      <c r="V4" s="12" t="str">
         <f>IF(组合逻辑真值表!U5=1,$M4&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W4" s="4" t="str">
+      <c r="W4" s="12" t="str">
         <f>IF(组合逻辑真值表!V5=1,$M4&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X4" s="4" t="str">
+      <c r="X4" s="12" t="str">
         <f>IF(组合逻辑真值表!W5=1,$M4&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y4" s="4" t="str">
+      <c r="Y4" s="12" t="str">
         <f>IF(组合逻辑真值表!X5=1,$M4&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="str">
+    <row r="5" spans="1:25">
+      <c r="A5" s="3" t="str">
         <f>IF(组合逻辑真值表!A6&lt;&gt;"",IF(组合逻辑真值表!A6=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A6=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B5" s="16" t="str">
+      <c r="B5" s="3" t="str">
         <f>IF(组合逻辑真值表!B6&lt;&gt;"",IF(组合逻辑真值表!B6=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B6=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C5" s="16" t="str">
+      <c r="C5" s="3" t="str">
         <f>IF(组合逻辑真值表!C6&lt;&gt;"",IF(组合逻辑真值表!C6=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C6=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D5" s="16" t="str">
+      <c r="D5" s="3" t="str">
         <f>IF(组合逻辑真值表!D6&lt;&gt;"",IF(组合逻辑真值表!D6=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D6=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E5" s="16" t="str">
+      <c r="E5" s="3" t="str">
         <f>IF(组合逻辑真值表!E6&lt;&gt;"",IF(组合逻辑真值表!E6=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E6=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F5" s="16" t="str">
+      <c r="F5" s="3" t="str">
         <f>IF(组合逻辑真值表!F6&lt;&gt;"",IF(组合逻辑真值表!F6=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F6=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G5" s="16" t="str">
+      <c r="G5" s="3" t="str">
         <f>IF(组合逻辑真值表!G6&lt;&gt;"",IF(组合逻辑真值表!G6=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G6=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H5" s="16" t="str">
+      <c r="H5" s="3" t="str">
         <f>IF(组合逻辑真值表!H6&lt;&gt;"",IF(组合逻辑真值表!H6=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H6=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I5" s="16" t="str">
+      <c r="I5" s="3" t="str">
         <f>IF(组合逻辑真值表!I6&lt;&gt;"",IF(组合逻辑真值表!I6=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I6=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J5" s="16" t="str">
+      <c r="J5" s="3" t="str">
         <f>IF(组合逻辑真值表!J6&lt;&gt;"",IF(组合逻辑真值表!J6=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J6=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K5" s="16" t="str">
+      <c r="K5" s="3" t="str">
         <f>IF(组合逻辑真值表!K6&lt;&gt;"",IF(组合逻辑真值表!K6=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K6=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L5" s="16" t="str">
+      <c r="L5" s="3" t="str">
         <f>IF(组合逻辑真值表!L6&lt;&gt;"",IF(组合逻辑真值表!L6=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L6=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M5" s="3" t="str">
+      <c r="M5" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N5" s="4" t="str">
+      <c r="N5" s="12" t="str">
         <f>IF(组合逻辑真值表!M6=1,$M5&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O5" s="4" t="str">
+      <c r="O5" s="12" t="str">
         <f>IF(组合逻辑真值表!N6=1,$M5&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P5" s="4" t="str">
+      <c r="P5" s="12" t="str">
         <f>IF(组合逻辑真值表!O6=1,$M5&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q5" s="4" t="str">
+      <c r="Q5" s="12" t="str">
         <f>IF(组合逻辑真值表!P6=1,$M5&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R5" s="4" t="str">
+      <c r="R5" s="12" t="str">
         <f>IF(组合逻辑真值表!Q6=1,$M5&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S5" s="4" t="str">
+      <c r="S5" s="12" t="str">
         <f>IF(组合逻辑真值表!R6=1,$M5&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T5" s="4" t="str">
+      <c r="T5" s="12" t="str">
         <f>IF(组合逻辑真值表!S6=1,$M5&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U5" s="4" t="str">
+      <c r="U5" s="12" t="str">
         <f>IF(组合逻辑真值表!T6=1,$M5&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V5" s="4" t="str">
+      <c r="V5" s="12" t="str">
         <f>IF(组合逻辑真值表!U6=1,$M5&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W5" s="4" t="str">
+      <c r="W5" s="12" t="str">
         <f>IF(组合逻辑真值表!V6=1,$M5&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X5" s="4" t="str">
+      <c r="X5" s="12" t="str">
         <f>IF(组合逻辑真值表!W6=1,$M5&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y5" s="4" t="str">
+      <c r="Y5" s="12" t="str">
         <f>IF(组合逻辑真值表!X6=1,$M5&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="str">
+    <row r="6" spans="1:25">
+      <c r="A6" s="3" t="str">
         <f>IF(组合逻辑真值表!A7&lt;&gt;"",IF(组合逻辑真值表!A7=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A7=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B6" s="16" t="str">
+      <c r="B6" s="3" t="str">
         <f>IF(组合逻辑真值表!B7&lt;&gt;"",IF(组合逻辑真值表!B7=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B7=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C6" s="16" t="str">
+      <c r="C6" s="3" t="str">
         <f>IF(组合逻辑真值表!C7&lt;&gt;"",IF(组合逻辑真值表!C7=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C7=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D6" s="16" t="str">
+      <c r="D6" s="3" t="str">
         <f>IF(组合逻辑真值表!D7&lt;&gt;"",IF(组合逻辑真值表!D7=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D7=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E6" s="16" t="str">
+      <c r="E6" s="3" t="str">
         <f>IF(组合逻辑真值表!E7&lt;&gt;"",IF(组合逻辑真值表!E7=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E7=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F6" s="16" t="str">
+      <c r="F6" s="3" t="str">
         <f>IF(组合逻辑真值表!F7&lt;&gt;"",IF(组合逻辑真值表!F7=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F7=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G6" s="16" t="str">
+      <c r="G6" s="3" t="str">
         <f>IF(组合逻辑真值表!G7&lt;&gt;"",IF(组合逻辑真值表!G7=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G7=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H6" s="16" t="str">
+      <c r="H6" s="3" t="str">
         <f>IF(组合逻辑真值表!H7&lt;&gt;"",IF(组合逻辑真值表!H7=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H7=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I6" s="16" t="str">
+      <c r="I6" s="3" t="str">
         <f>IF(组合逻辑真值表!I7&lt;&gt;"",IF(组合逻辑真值表!I7=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I7=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J6" s="16" t="str">
+      <c r="J6" s="3" t="str">
         <f>IF(组合逻辑真值表!J7&lt;&gt;"",IF(组合逻辑真值表!J7=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J7=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K6" s="16" t="str">
+      <c r="K6" s="3" t="str">
         <f>IF(组合逻辑真值表!K7&lt;&gt;"",IF(组合逻辑真值表!K7=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K7=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L6" s="16" t="str">
+      <c r="L6" s="3" t="str">
         <f>IF(组合逻辑真值表!L7&lt;&gt;"",IF(组合逻辑真值表!L7=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L7=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M6" s="3" t="str">
+      <c r="M6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N6" s="4" t="str">
+      <c r="N6" s="12" t="str">
         <f>IF(组合逻辑真值表!M7=1,$M6&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O6" s="4" t="str">
+      <c r="O6" s="12" t="str">
         <f>IF(组合逻辑真值表!N7=1,$M6&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P6" s="4" t="str">
+      <c r="P6" s="12" t="str">
         <f>IF(组合逻辑真值表!O7=1,$M6&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q6" s="4" t="str">
+      <c r="Q6" s="12" t="str">
         <f>IF(组合逻辑真值表!P7=1,$M6&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R6" s="4" t="str">
+      <c r="R6" s="12" t="str">
         <f>IF(组合逻辑真值表!Q7=1,$M6&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S6" s="4" t="str">
+      <c r="S6" s="12" t="str">
         <f>IF(组合逻辑真值表!R7=1,$M6&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T6" s="4" t="str">
+      <c r="T6" s="12" t="str">
         <f>IF(组合逻辑真值表!S7=1,$M6&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U6" s="4" t="str">
+      <c r="U6" s="12" t="str">
         <f>IF(组合逻辑真值表!T7=1,$M6&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V6" s="4" t="str">
+      <c r="V6" s="12" t="str">
         <f>IF(组合逻辑真值表!U7=1,$M6&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W6" s="4" t="str">
+      <c r="W6" s="12" t="str">
         <f>IF(组合逻辑真值表!V7=1,$M6&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X6" s="4" t="str">
+      <c r="X6" s="12" t="str">
         <f>IF(组合逻辑真值表!W7=1,$M6&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y6" s="4" t="str">
+      <c r="Y6" s="12" t="str">
         <f>IF(组合逻辑真值表!X7=1,$M6&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="str">
+    <row r="7" spans="1:25">
+      <c r="A7" s="3" t="str">
         <f>IF(组合逻辑真值表!A8&lt;&gt;"",IF(组合逻辑真值表!A8=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A8=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B7" s="16" t="str">
+      <c r="B7" s="3" t="str">
         <f>IF(组合逻辑真值表!B8&lt;&gt;"",IF(组合逻辑真值表!B8=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B8=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="3" t="str">
         <f>IF(组合逻辑真值表!C8&lt;&gt;"",IF(组合逻辑真值表!C8=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C8=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" s="3" t="str">
         <f>IF(组合逻辑真值表!D8&lt;&gt;"",IF(组合逻辑真值表!D8=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D8=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E7" s="16" t="str">
+      <c r="E7" s="3" t="str">
         <f>IF(组合逻辑真值表!E8&lt;&gt;"",IF(组合逻辑真值表!E8=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E8=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F7" s="16" t="str">
+      <c r="F7" s="3" t="str">
         <f>IF(组合逻辑真值表!F8&lt;&gt;"",IF(组合逻辑真值表!F8=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F8=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="3" t="str">
         <f>IF(组合逻辑真值表!G8&lt;&gt;"",IF(组合逻辑真值表!G8=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G8=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H7" s="16" t="str">
+      <c r="H7" s="3" t="str">
         <f>IF(组合逻辑真值表!H8&lt;&gt;"",IF(组合逻辑真值表!H8=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H8=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I7" s="16" t="str">
+      <c r="I7" s="3" t="str">
         <f>IF(组合逻辑真值表!I8&lt;&gt;"",IF(组合逻辑真值表!I8=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I8=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J7" s="16" t="str">
+      <c r="J7" s="3" t="str">
         <f>IF(组合逻辑真值表!J8&lt;&gt;"",IF(组合逻辑真值表!J8=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J8=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K7" s="16" t="str">
+      <c r="K7" s="3" t="str">
         <f>IF(组合逻辑真值表!K8&lt;&gt;"",IF(组合逻辑真值表!K8=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K8=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L7" s="16" t="str">
+      <c r="L7" s="3" t="str">
         <f>IF(组合逻辑真值表!L8&lt;&gt;"",IF(组合逻辑真值表!L8=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L8=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M7" s="3" t="str">
+      <c r="M7" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N7" s="4" t="str">
+      <c r="N7" s="12" t="str">
         <f>IF(组合逻辑真值表!M8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O7" s="4" t="str">
+      <c r="O7" s="12" t="str">
         <f>IF(组合逻辑真值表!N8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P7" s="4" t="str">
+      <c r="P7" s="12" t="str">
         <f>IF(组合逻辑真值表!O8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q7" s="4" t="str">
+      <c r="Q7" s="12" t="str">
         <f>IF(组合逻辑真值表!P8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R7" s="4" t="str">
+      <c r="R7" s="12" t="str">
         <f>IF(组合逻辑真值表!Q8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S7" s="4" t="str">
+      <c r="S7" s="12" t="str">
         <f>IF(组合逻辑真值表!R8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T7" s="4" t="str">
+      <c r="T7" s="12" t="str">
         <f>IF(组合逻辑真值表!S8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U7" s="4" t="str">
+      <c r="U7" s="12" t="str">
         <f>IF(组合逻辑真值表!T8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V7" s="4" t="str">
+      <c r="V7" s="12" t="str">
         <f>IF(组合逻辑真值表!U8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W7" s="4" t="str">
+      <c r="W7" s="12" t="str">
         <f>IF(组合逻辑真值表!V8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X7" s="4" t="str">
+      <c r="X7" s="12" t="str">
         <f>IF(组合逻辑真值表!W8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y7" s="4" t="str">
+      <c r="Y7" s="12" t="str">
         <f>IF(组合逻辑真值表!X8=1,$M7&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="str">
+    <row r="8" spans="1:25">
+      <c r="A8" s="3" t="str">
         <f>IF(组合逻辑真值表!A9&lt;&gt;"",IF(组合逻辑真值表!A9=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A9=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="3" t="str">
         <f>IF(组合逻辑真值表!B9&lt;&gt;"",IF(组合逻辑真值表!B9=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B9=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="3" t="str">
         <f>IF(组合逻辑真值表!C9&lt;&gt;"",IF(组合逻辑真值表!C9=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C9=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="3" t="str">
         <f>IF(组合逻辑真值表!D9&lt;&gt;"",IF(组合逻辑真值表!D9=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D9=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E8" s="16" t="str">
+      <c r="E8" s="3" t="str">
         <f>IF(组合逻辑真值表!E9&lt;&gt;"",IF(组合逻辑真值表!E9=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E9=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F8" s="16" t="str">
+      <c r="F8" s="3" t="str">
         <f>IF(组合逻辑真值表!F9&lt;&gt;"",IF(组合逻辑真值表!F9=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F9=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="3" t="str">
         <f>IF(组合逻辑真值表!G9&lt;&gt;"",IF(组合逻辑真值表!G9=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G9=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H8" s="16" t="str">
+      <c r="H8" s="3" t="str">
         <f>IF(组合逻辑真值表!H9&lt;&gt;"",IF(组合逻辑真值表!H9=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H9=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I8" s="16" t="str">
+      <c r="I8" s="3" t="str">
         <f>IF(组合逻辑真值表!I9&lt;&gt;"",IF(组合逻辑真值表!I9=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I9=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J8" s="16" t="str">
+      <c r="J8" s="3" t="str">
         <f>IF(组合逻辑真值表!J9&lt;&gt;"",IF(组合逻辑真值表!J9=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J9=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K8" s="16" t="str">
+      <c r="K8" s="3" t="str">
         <f>IF(组合逻辑真值表!K9&lt;&gt;"",IF(组合逻辑真值表!K9=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K9=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L8" s="16" t="str">
+      <c r="L8" s="3" t="str">
         <f>IF(组合逻辑真值表!L9&lt;&gt;"",IF(组合逻辑真值表!L9=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L9=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M8" s="3" t="str">
+      <c r="M8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N8" s="4" t="str">
+      <c r="N8" s="12" t="str">
         <f>IF(组合逻辑真值表!M9=1,$M8&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O8" s="4" t="str">
+      <c r="O8" s="12" t="str">
         <f>IF(组合逻辑真值表!N9=1,$M8&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P8" s="4" t="str">
+      <c r="P8" s="12" t="str">
         <f>IF(组合逻辑真值表!O9=1,$M8&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q8" s="4" t="str">
+      <c r="Q8" s="12" t="str">
         <f>IF(组合逻辑真值表!P9=1,$M8&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R8" s="4" t="str">
+      <c r="R8" s="12" t="str">
         <f>IF(组合逻辑真值表!Q9=1,$M8&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S8" s="4" t="str">
+      <c r="S8" s="12" t="str">
         <f>IF(组合逻辑真值表!R9=1,$M8&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T8" s="4" t="str">
+      <c r="T8" s="12" t="str">
         <f>IF(组合逻辑真值表!S9=1,$M8&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U8" s="4" t="str">
+      <c r="U8" s="12" t="str">
         <f>IF(组合逻辑真值表!T9=1,$M8&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V8" s="4" t="str">
+      <c r="V8" s="12" t="str">
         <f>IF(组合逻辑真值表!U9=1,$M8&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W8" s="4" t="str">
+      <c r="W8" s="12" t="str">
         <f>IF(组合逻辑真值表!V9=1,$M8&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X8" s="4" t="str">
+      <c r="X8" s="12" t="str">
         <f>IF(组合逻辑真值表!W9=1,$M8&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y8" s="4" t="str">
+      <c r="Y8" s="12" t="str">
         <f>IF(组合逻辑真值表!X9=1,$M8&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="str">
+    <row r="9" spans="1:25">
+      <c r="A9" s="3" t="str">
         <f>IF(组合逻辑真值表!A10&lt;&gt;"",IF(组合逻辑真值表!A10=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A10=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="3" t="str">
         <f>IF(组合逻辑真值表!B10&lt;&gt;"",IF(组合逻辑真值表!B10=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B10=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="3" t="str">
         <f>IF(组合逻辑真值表!C10&lt;&gt;"",IF(组合逻辑真值表!C10=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C10=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="3" t="str">
         <f>IF(组合逻辑真值表!D10&lt;&gt;"",IF(组合逻辑真值表!D10=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D10=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E9" s="16" t="str">
+      <c r="E9" s="3" t="str">
         <f>IF(组合逻辑真值表!E10&lt;&gt;"",IF(组合逻辑真值表!E10=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E10=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F9" s="16" t="str">
+      <c r="F9" s="3" t="str">
         <f>IF(组合逻辑真值表!F10&lt;&gt;"",IF(组合逻辑真值表!F10=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F10=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="3" t="str">
         <f>IF(组合逻辑真值表!G10&lt;&gt;"",IF(组合逻辑真值表!G10=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G10=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H9" s="16" t="str">
+      <c r="H9" s="3" t="str">
         <f>IF(组合逻辑真值表!H10&lt;&gt;"",IF(组合逻辑真值表!H10=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H10=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I9" s="16" t="str">
+      <c r="I9" s="3" t="str">
         <f>IF(组合逻辑真值表!I10&lt;&gt;"",IF(组合逻辑真值表!I10=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I10=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J9" s="16" t="str">
+      <c r="J9" s="3" t="str">
         <f>IF(组合逻辑真值表!J10&lt;&gt;"",IF(组合逻辑真值表!J10=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J10=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K9" s="16" t="str">
+      <c r="K9" s="3" t="str">
         <f>IF(组合逻辑真值表!K10&lt;&gt;"",IF(组合逻辑真值表!K10=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K10=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L9" s="16" t="str">
+      <c r="L9" s="3" t="str">
         <f>IF(组合逻辑真值表!L10&lt;&gt;"",IF(组合逻辑真值表!L10=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L10=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M9" s="3" t="str">
+      <c r="M9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N9" s="4" t="str">
+      <c r="N9" s="12" t="str">
         <f>IF(组合逻辑真值表!M10=1,$M9&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O9" s="4" t="str">
+      <c r="O9" s="12" t="str">
         <f>IF(组合逻辑真值表!N10=1,$M9&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P9" s="4" t="str">
+      <c r="P9" s="12" t="str">
         <f>IF(组合逻辑真值表!O10=1,$M9&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q9" s="4" t="str">
+      <c r="Q9" s="12" t="str">
         <f>IF(组合逻辑真值表!P10=1,$M9&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R9" s="4" t="str">
+      <c r="R9" s="12" t="str">
         <f>IF(组合逻辑真值表!Q10=1,$M9&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S9" s="4" t="str">
+      <c r="S9" s="12" t="str">
         <f>IF(组合逻辑真值表!R10=1,$M9&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T9" s="4" t="str">
+      <c r="T9" s="12" t="str">
         <f>IF(组合逻辑真值表!S10=1,$M9&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U9" s="4" t="str">
+      <c r="U9" s="12" t="str">
         <f>IF(组合逻辑真值表!T10=1,$M9&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V9" s="4" t="str">
+      <c r="V9" s="12" t="str">
         <f>IF(组合逻辑真值表!U10=1,$M9&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W9" s="4" t="str">
+      <c r="W9" s="12" t="str">
         <f>IF(组合逻辑真值表!V10=1,$M9&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X9" s="4" t="str">
+      <c r="X9" s="12" t="str">
         <f>IF(组合逻辑真值表!W10=1,$M9&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y9" s="4" t="str">
+      <c r="Y9" s="12" t="str">
         <f>IF(组合逻辑真值表!X10=1,$M9&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="str">
+    <row r="10" spans="1:25">
+      <c r="A10" s="3" t="str">
         <f>IF(组合逻辑真值表!A11&lt;&gt;"",IF(组合逻辑真值表!A11=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A11=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="3" t="str">
         <f>IF(组合逻辑真值表!B11&lt;&gt;"",IF(组合逻辑真值表!B11=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B11=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="3" t="str">
         <f>IF(组合逻辑真值表!C11&lt;&gt;"",IF(组合逻辑真值表!C11=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C11=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="3" t="str">
         <f>IF(组合逻辑真值表!D11&lt;&gt;"",IF(组合逻辑真值表!D11=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D11=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E10" s="16" t="str">
+      <c r="E10" s="3" t="str">
         <f>IF(组合逻辑真值表!E11&lt;&gt;"",IF(组合逻辑真值表!E11=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E11=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F10" s="16" t="str">
+      <c r="F10" s="3" t="str">
         <f>IF(组合逻辑真值表!F11&lt;&gt;"",IF(组合逻辑真值表!F11=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F11=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="3" t="str">
         <f>IF(组合逻辑真值表!G11&lt;&gt;"",IF(组合逻辑真值表!G11=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G11=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H10" s="16" t="str">
+      <c r="H10" s="3" t="str">
         <f>IF(组合逻辑真值表!H11&lt;&gt;"",IF(组合逻辑真值表!H11=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H11=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I10" s="16" t="str">
+      <c r="I10" s="3" t="str">
         <f>IF(组合逻辑真值表!I11&lt;&gt;"",IF(组合逻辑真值表!I11=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I11=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J10" s="16" t="str">
+      <c r="J10" s="3" t="str">
         <f>IF(组合逻辑真值表!J11&lt;&gt;"",IF(组合逻辑真值表!J11=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J11=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K10" s="16" t="str">
+      <c r="K10" s="3" t="str">
         <f>IF(组合逻辑真值表!K11&lt;&gt;"",IF(组合逻辑真值表!K11=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K11=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L10" s="16" t="str">
+      <c r="L10" s="3" t="str">
         <f>IF(组合逻辑真值表!L11&lt;&gt;"",IF(组合逻辑真值表!L11=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L11=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M10" s="3" t="str">
+      <c r="M10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N10" s="4" t="str">
+      <c r="N10" s="12" t="str">
         <f>IF(组合逻辑真值表!M11=1,$M10&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O10" s="4" t="str">
+      <c r="O10" s="12" t="str">
         <f>IF(组合逻辑真值表!N11=1,$M10&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P10" s="4" t="str">
+      <c r="P10" s="12" t="str">
         <f>IF(组合逻辑真值表!O11=1,$M10&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q10" s="4" t="str">
+      <c r="Q10" s="12" t="str">
         <f>IF(组合逻辑真值表!P11=1,$M10&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R10" s="4" t="str">
+      <c r="R10" s="12" t="str">
         <f>IF(组合逻辑真值表!Q11=1,$M10&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S10" s="4" t="str">
+      <c r="S10" s="12" t="str">
         <f>IF(组合逻辑真值表!R11=1,$M10&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T10" s="4" t="str">
+      <c r="T10" s="12" t="str">
         <f>IF(组合逻辑真值表!S11=1,$M10&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U10" s="4" t="str">
+      <c r="U10" s="12" t="str">
         <f>IF(组合逻辑真值表!T11=1,$M10&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V10" s="4" t="str">
+      <c r="V10" s="12" t="str">
         <f>IF(组合逻辑真值表!U11=1,$M10&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W10" s="4" t="str">
+      <c r="W10" s="12" t="str">
         <f>IF(组合逻辑真值表!V11=1,$M10&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X10" s="4" t="str">
+      <c r="X10" s="12" t="str">
         <f>IF(组合逻辑真值表!W11=1,$M10&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y10" s="4" t="str">
+      <c r="Y10" s="12" t="str">
         <f>IF(组合逻辑真值表!X11=1,$M10&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="str">
+    <row r="11" spans="1:25">
+      <c r="A11" s="3" t="str">
         <f>IF(组合逻辑真值表!A12&lt;&gt;"",IF(组合逻辑真值表!A12=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A12=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B11" s="16" t="str">
+      <c r="B11" s="3" t="str">
         <f>IF(组合逻辑真值表!B12&lt;&gt;"",IF(组合逻辑真值表!B12=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B12=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="3" t="str">
         <f>IF(组合逻辑真值表!C12&lt;&gt;"",IF(组合逻辑真值表!C12=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C12=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="3" t="str">
         <f>IF(组合逻辑真值表!D12&lt;&gt;"",IF(组合逻辑真值表!D12=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D12=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E11" s="16" t="str">
+      <c r="E11" s="3" t="str">
         <f>IF(组合逻辑真值表!E12&lt;&gt;"",IF(组合逻辑真值表!E12=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E12=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F11" s="16" t="str">
+      <c r="F11" s="3" t="str">
         <f>IF(组合逻辑真值表!F12&lt;&gt;"",IF(组合逻辑真值表!F12=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F12=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="3" t="str">
         <f>IF(组合逻辑真值表!G12&lt;&gt;"",IF(组合逻辑真值表!G12=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G12=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H11" s="16" t="str">
+      <c r="H11" s="3" t="str">
         <f>IF(组合逻辑真值表!H12&lt;&gt;"",IF(组合逻辑真值表!H12=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H12=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="3" t="str">
         <f>IF(组合逻辑真值表!I12&lt;&gt;"",IF(组合逻辑真值表!I12=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I12=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J11" s="16" t="str">
+      <c r="J11" s="3" t="str">
         <f>IF(组合逻辑真值表!J12&lt;&gt;"",IF(组合逻辑真值表!J12=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J12=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K11" s="16" t="str">
+      <c r="K11" s="3" t="str">
         <f>IF(组合逻辑真值表!K12&lt;&gt;"",IF(组合逻辑真值表!K12=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K12=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L11" s="16" t="str">
+      <c r="L11" s="3" t="str">
         <f>IF(组合逻辑真值表!L12&lt;&gt;"",IF(组合逻辑真值表!L12=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L12=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M11" s="3" t="str">
+      <c r="M11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N11" s="4" t="str">
+      <c r="N11" s="12" t="str">
         <f>IF(组合逻辑真值表!M12=1,$M11&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O11" s="4" t="str">
+      <c r="O11" s="12" t="str">
         <f>IF(组合逻辑真值表!N12=1,$M11&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P11" s="4" t="str">
+      <c r="P11" s="12" t="str">
         <f>IF(组合逻辑真值表!O12=1,$M11&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q11" s="4" t="str">
+      <c r="Q11" s="12" t="str">
         <f>IF(组合逻辑真值表!P12=1,$M11&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R11" s="4" t="str">
+      <c r="R11" s="12" t="str">
         <f>IF(组合逻辑真值表!Q12=1,$M11&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S11" s="4" t="str">
+      <c r="S11" s="12" t="str">
         <f>IF(组合逻辑真值表!R12=1,$M11&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T11" s="4" t="str">
+      <c r="T11" s="12" t="str">
         <f>IF(组合逻辑真值表!S12=1,$M11&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U11" s="4" t="str">
+      <c r="U11" s="12" t="str">
         <f>IF(组合逻辑真值表!T12=1,$M11&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V11" s="4" t="str">
+      <c r="V11" s="12" t="str">
         <f>IF(组合逻辑真值表!U12=1,$M11&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W11" s="4" t="str">
+      <c r="W11" s="12" t="str">
         <f>IF(组合逻辑真值表!V12=1,$M11&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X11" s="4" t="str">
+      <c r="X11" s="12" t="str">
         <f>IF(组合逻辑真值表!W12=1,$M11&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y11" s="4" t="str">
+      <c r="Y11" s="12" t="str">
         <f>IF(组合逻辑真值表!X12=1,$M11&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="str">
+    <row r="12" spans="1:25">
+      <c r="A12" s="3" t="str">
         <f>IF(组合逻辑真值表!A13&lt;&gt;"",IF(组合逻辑真值表!A13=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A13=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="3" t="str">
         <f>IF(组合逻辑真值表!B13&lt;&gt;"",IF(组合逻辑真值表!B13=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B13=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="3" t="str">
         <f>IF(组合逻辑真值表!C13&lt;&gt;"",IF(组合逻辑真值表!C13=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C13=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="3" t="str">
         <f>IF(组合逻辑真值表!D13&lt;&gt;"",IF(组合逻辑真值表!D13=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D13=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E12" s="16" t="str">
+      <c r="E12" s="3" t="str">
         <f>IF(组合逻辑真值表!E13&lt;&gt;"",IF(组合逻辑真值表!E13=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E13=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="3" t="str">
         <f>IF(组合逻辑真值表!F13&lt;&gt;"",IF(组合逻辑真值表!F13=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F13=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="3" t="str">
         <f>IF(组合逻辑真值表!G13&lt;&gt;"",IF(组合逻辑真值表!G13=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G13=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H12" s="16" t="str">
+      <c r="H12" s="3" t="str">
         <f>IF(组合逻辑真值表!H13&lt;&gt;"",IF(组合逻辑真值表!H13=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H13=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I12" s="16" t="str">
+      <c r="I12" s="3" t="str">
         <f>IF(组合逻辑真值表!I13&lt;&gt;"",IF(组合逻辑真值表!I13=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I13=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J12" s="16" t="str">
+      <c r="J12" s="3" t="str">
         <f>IF(组合逻辑真值表!J13&lt;&gt;"",IF(组合逻辑真值表!J13=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J13=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K12" s="16" t="str">
+      <c r="K12" s="3" t="str">
         <f>IF(组合逻辑真值表!K13&lt;&gt;"",IF(组合逻辑真值表!K13=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K13=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L12" s="16" t="str">
+      <c r="L12" s="3" t="str">
         <f>IF(组合逻辑真值表!L13&lt;&gt;"",IF(组合逻辑真值表!L13=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L13=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M12" s="3" t="str">
+      <c r="M12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N12" s="4" t="str">
+      <c r="N12" s="12" t="str">
         <f>IF(组合逻辑真值表!M13=1,$M12&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O12" s="4" t="str">
+      <c r="O12" s="12" t="str">
         <f>IF(组合逻辑真值表!N13=1,$M12&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P12" s="4" t="str">
+      <c r="P12" s="12" t="str">
         <f>IF(组合逻辑真值表!O13=1,$M12&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q12" s="4" t="str">
+      <c r="Q12" s="12" t="str">
         <f>IF(组合逻辑真值表!P13=1,$M12&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R12" s="4" t="str">
+      <c r="R12" s="12" t="str">
         <f>IF(组合逻辑真值表!Q13=1,$M12&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S12" s="4" t="str">
+      <c r="S12" s="12" t="str">
         <f>IF(组合逻辑真值表!R13=1,$M12&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T12" s="4" t="str">
+      <c r="T12" s="12" t="str">
         <f>IF(组合逻辑真值表!S13=1,$M12&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U12" s="4" t="str">
+      <c r="U12" s="12" t="str">
         <f>IF(组合逻辑真值表!T13=1,$M12&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V12" s="4" t="str">
+      <c r="V12" s="12" t="str">
         <f>IF(组合逻辑真值表!U13=1,$M12&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W12" s="4" t="str">
+      <c r="W12" s="12" t="str">
         <f>IF(组合逻辑真值表!V13=1,$M12&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X12" s="4" t="str">
+      <c r="X12" s="12" t="str">
         <f>IF(组合逻辑真值表!W13=1,$M12&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y12" s="4" t="str">
+      <c r="Y12" s="12" t="str">
         <f>IF(组合逻辑真值表!X13=1,$M12&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="str">
+    <row r="13" spans="1:25">
+      <c r="A13" s="3" t="str">
         <f>IF(组合逻辑真值表!A14&lt;&gt;"",IF(组合逻辑真值表!A14=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A14=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B13" s="16" t="str">
+      <c r="B13" s="3" t="str">
         <f>IF(组合逻辑真值表!B14&lt;&gt;"",IF(组合逻辑真值表!B14=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B14=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="3" t="str">
         <f>IF(组合逻辑真值表!C14&lt;&gt;"",IF(组合逻辑真值表!C14=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C14=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="3" t="str">
         <f>IF(组合逻辑真值表!D14&lt;&gt;"",IF(组合逻辑真值表!D14=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D14=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E13" s="16" t="str">
+      <c r="E13" s="3" t="str">
         <f>IF(组合逻辑真值表!E14&lt;&gt;"",IF(组合逻辑真值表!E14=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E14=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F13" s="16" t="str">
+      <c r="F13" s="3" t="str">
         <f>IF(组合逻辑真值表!F14&lt;&gt;"",IF(组合逻辑真值表!F14=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F14=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G13" s="16" t="str">
+      <c r="G13" s="3" t="str">
         <f>IF(组合逻辑真值表!G14&lt;&gt;"",IF(组合逻辑真值表!G14=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G14=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H13" s="16" t="str">
+      <c r="H13" s="3" t="str">
         <f>IF(组合逻辑真值表!H14&lt;&gt;"",IF(组合逻辑真值表!H14=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H14=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I13" s="16" t="str">
+      <c r="I13" s="3" t="str">
         <f>IF(组合逻辑真值表!I14&lt;&gt;"",IF(组合逻辑真值表!I14=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I14=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J13" s="16" t="str">
+      <c r="J13" s="3" t="str">
         <f>IF(组合逻辑真值表!J14&lt;&gt;"",IF(组合逻辑真值表!J14=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J14=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K13" s="16" t="str">
+      <c r="K13" s="3" t="str">
         <f>IF(组合逻辑真值表!K14&lt;&gt;"",IF(组合逻辑真值表!K14=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K14=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L13" s="16" t="str">
+      <c r="L13" s="3" t="str">
         <f>IF(组合逻辑真值表!L14&lt;&gt;"",IF(组合逻辑真值表!L14=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L14=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M13" s="3" t="str">
+      <c r="M13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N13" s="4" t="str">
+      <c r="N13" s="12" t="str">
         <f>IF(组合逻辑真值表!M14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O13" s="4" t="str">
+      <c r="O13" s="12" t="str">
         <f>IF(组合逻辑真值表!N14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P13" s="4" t="str">
+      <c r="P13" s="12" t="str">
         <f>IF(组合逻辑真值表!O14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q13" s="4" t="str">
+      <c r="Q13" s="12" t="str">
         <f>IF(组合逻辑真值表!P14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R13" s="4" t="str">
+      <c r="R13" s="12" t="str">
         <f>IF(组合逻辑真值表!Q14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S13" s="4" t="str">
+      <c r="S13" s="12" t="str">
         <f>IF(组合逻辑真值表!R14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T13" s="4" t="str">
+      <c r="T13" s="12" t="str">
         <f>IF(组合逻辑真值表!S14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U13" s="4" t="str">
+      <c r="U13" s="12" t="str">
         <f>IF(组合逻辑真值表!T14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V13" s="4" t="str">
+      <c r="V13" s="12" t="str">
         <f>IF(组合逻辑真值表!U14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W13" s="4" t="str">
+      <c r="W13" s="12" t="str">
         <f>IF(组合逻辑真值表!V14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X13" s="4" t="str">
+      <c r="X13" s="12" t="str">
         <f>IF(组合逻辑真值表!W14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y13" s="4" t="str">
+      <c r="Y13" s="12" t="str">
         <f>IF(组合逻辑真值表!X14=1,$M13&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="str">
+    <row r="14" spans="1:25">
+      <c r="A14" s="3" t="str">
         <f>IF(组合逻辑真值表!A15&lt;&gt;"",IF(组合逻辑真值表!A15=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A15=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="3" t="str">
         <f>IF(组合逻辑真值表!B15&lt;&gt;"",IF(组合逻辑真值表!B15=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B15=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="3" t="str">
         <f>IF(组合逻辑真值表!C15&lt;&gt;"",IF(组合逻辑真值表!C15=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C15=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" s="3" t="str">
         <f>IF(组合逻辑真值表!D15&lt;&gt;"",IF(组合逻辑真值表!D15=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D15=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E14" s="16" t="str">
+      <c r="E14" s="3" t="str">
         <f>IF(组合逻辑真值表!E15&lt;&gt;"",IF(组合逻辑真值表!E15=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E15=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F14" s="16" t="str">
+      <c r="F14" s="3" t="str">
         <f>IF(组合逻辑真值表!F15&lt;&gt;"",IF(组合逻辑真值表!F15=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F15=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G14" s="16" t="str">
+      <c r="G14" s="3" t="str">
         <f>IF(组合逻辑真值表!G15&lt;&gt;"",IF(组合逻辑真值表!G15=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G15=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H14" s="16" t="str">
+      <c r="H14" s="3" t="str">
         <f>IF(组合逻辑真值表!H15&lt;&gt;"",IF(组合逻辑真值表!H15=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H15=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I14" s="16" t="str">
+      <c r="I14" s="3" t="str">
         <f>IF(组合逻辑真值表!I15&lt;&gt;"",IF(组合逻辑真值表!I15=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I15=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J14" s="16" t="str">
+      <c r="J14" s="3" t="str">
         <f>IF(组合逻辑真值表!J15&lt;&gt;"",IF(组合逻辑真值表!J15=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J15=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K14" s="16" t="str">
+      <c r="K14" s="3" t="str">
         <f>IF(组合逻辑真值表!K15&lt;&gt;"",IF(组合逻辑真值表!K15=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K15=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L14" s="16" t="str">
+      <c r="L14" s="3" t="str">
         <f>IF(组合逻辑真值表!L15&lt;&gt;"",IF(组合逻辑真值表!L15=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L15=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M14" s="3" t="str">
+      <c r="M14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N14" s="4" t="str">
+      <c r="N14" s="12" t="str">
         <f>IF(组合逻辑真值表!M15=1,$M14&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O14" s="4" t="str">
+      <c r="O14" s="12" t="str">
         <f>IF(组合逻辑真值表!N15=1,$M14&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P14" s="4" t="str">
+      <c r="P14" s="12" t="str">
         <f>IF(组合逻辑真值表!O15=1,$M14&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q14" s="4" t="str">
+      <c r="Q14" s="12" t="str">
         <f>IF(组合逻辑真值表!P15=1,$M14&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R14" s="4" t="str">
+      <c r="R14" s="12" t="str">
         <f>IF(组合逻辑真值表!Q15=1,$M14&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S14" s="4" t="str">
+      <c r="S14" s="12" t="str">
         <f>IF(组合逻辑真值表!R15=1,$M14&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T14" s="4" t="str">
+      <c r="T14" s="12" t="str">
         <f>IF(组合逻辑真值表!S15=1,$M14&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U14" s="4" t="str">
+      <c r="U14" s="12" t="str">
         <f>IF(组合逻辑真值表!T15=1,$M14&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V14" s="4" t="str">
+      <c r="V14" s="12" t="str">
         <f>IF(组合逻辑真值表!U15=1,$M14&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W14" s="4" t="str">
+      <c r="W14" s="12" t="str">
         <f>IF(组合逻辑真值表!V15=1,$M14&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X14" s="4" t="str">
+      <c r="X14" s="12" t="str">
         <f>IF(组合逻辑真值表!W15=1,$M14&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y14" s="4" t="str">
+      <c r="Y14" s="12" t="str">
         <f>IF(组合逻辑真值表!X15=1,$M14&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="str">
+    <row r="15" spans="1:25">
+      <c r="A15" s="3" t="str">
         <f>IF(组合逻辑真值表!A16&lt;&gt;"",IF(组合逻辑真值表!A16=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A16=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="3" t="str">
         <f>IF(组合逻辑真值表!B16&lt;&gt;"",IF(组合逻辑真值表!B16=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B16=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="3" t="str">
         <f>IF(组合逻辑真值表!C16&lt;&gt;"",IF(组合逻辑真值表!C16=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C16=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" s="3" t="str">
         <f>IF(组合逻辑真值表!D16&lt;&gt;"",IF(组合逻辑真值表!D16=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D16=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="E15" s="3" t="str">
         <f>IF(组合逻辑真值表!E16&lt;&gt;"",IF(组合逻辑真值表!E16=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E16=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F15" s="16" t="str">
+      <c r="F15" s="3" t="str">
         <f>IF(组合逻辑真值表!F16&lt;&gt;"",IF(组合逻辑真值表!F16=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F16=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G15" s="16" t="str">
+      <c r="G15" s="3" t="str">
         <f>IF(组合逻辑真值表!G16&lt;&gt;"",IF(组合逻辑真值表!G16=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G16=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H15" s="16" t="str">
+      <c r="H15" s="3" t="str">
         <f>IF(组合逻辑真值表!H16&lt;&gt;"",IF(组合逻辑真值表!H16=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H16=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="3" t="str">
         <f>IF(组合逻辑真值表!I16&lt;&gt;"",IF(组合逻辑真值表!I16=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I16=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J15" s="16" t="str">
+      <c r="J15" s="3" t="str">
         <f>IF(组合逻辑真值表!J16&lt;&gt;"",IF(组合逻辑真值表!J16=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J16=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K15" s="16" t="str">
+      <c r="K15" s="3" t="str">
         <f>IF(组合逻辑真值表!K16&lt;&gt;"",IF(组合逻辑真值表!K16=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K16=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L15" s="16" t="str">
+      <c r="L15" s="3" t="str">
         <f>IF(组合逻辑真值表!L16&lt;&gt;"",IF(组合逻辑真值表!L16=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L16=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M15" s="3" t="str">
+      <c r="M15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N15" s="4" t="str">
+      <c r="N15" s="12" t="str">
         <f>IF(组合逻辑真值表!M16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O15" s="4" t="str">
+      <c r="O15" s="12" t="str">
         <f>IF(组合逻辑真值表!N16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P15" s="4" t="str">
+      <c r="P15" s="12" t="str">
         <f>IF(组合逻辑真值表!O16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q15" s="4" t="str">
+      <c r="Q15" s="12" t="str">
         <f>IF(组合逻辑真值表!P16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R15" s="4" t="str">
+      <c r="R15" s="12" t="str">
         <f>IF(组合逻辑真值表!Q16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S15" s="4" t="str">
+      <c r="S15" s="12" t="str">
         <f>IF(组合逻辑真值表!R16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T15" s="4" t="str">
+      <c r="T15" s="12" t="str">
         <f>IF(组合逻辑真值表!S16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U15" s="4" t="str">
+      <c r="U15" s="12" t="str">
         <f>IF(组合逻辑真值表!T16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V15" s="4" t="str">
+      <c r="V15" s="12" t="str">
         <f>IF(组合逻辑真值表!U16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W15" s="4" t="str">
+      <c r="W15" s="12" t="str">
         <f>IF(组合逻辑真值表!V16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X15" s="4" t="str">
+      <c r="X15" s="12" t="str">
         <f>IF(组合逻辑真值表!W16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y15" s="4" t="str">
+      <c r="Y15" s="12" t="str">
         <f>IF(组合逻辑真值表!X16=1,$M15&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="str">
+    <row r="16" spans="1:25">
+      <c r="A16" s="3" t="str">
         <f>IF(组合逻辑真值表!A17&lt;&gt;"",IF(组合逻辑真值表!A17=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A17=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="3" t="str">
         <f>IF(组合逻辑真值表!B17&lt;&gt;"",IF(组合逻辑真值表!B17=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B17=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="3" t="str">
         <f>IF(组合逻辑真值表!C17&lt;&gt;"",IF(组合逻辑真值表!C17=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C17=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" s="3" t="str">
         <f>IF(组合逻辑真值表!D17&lt;&gt;"",IF(组合逻辑真值表!D17=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D17=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E16" s="16" t="str">
+      <c r="E16" s="3" t="str">
         <f>IF(组合逻辑真值表!E17&lt;&gt;"",IF(组合逻辑真值表!E17=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E17=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F16" s="16" t="str">
+      <c r="F16" s="3" t="str">
         <f>IF(组合逻辑真值表!F17&lt;&gt;"",IF(组合逻辑真值表!F17=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F17=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G16" s="16" t="str">
+      <c r="G16" s="3" t="str">
         <f>IF(组合逻辑真值表!G17&lt;&gt;"",IF(组合逻辑真值表!G17=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G17=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H16" s="16" t="str">
+      <c r="H16" s="3" t="str">
         <f>IF(组合逻辑真值表!H17&lt;&gt;"",IF(组合逻辑真值表!H17=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H17=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I16" s="16" t="str">
+      <c r="I16" s="3" t="str">
         <f>IF(组合逻辑真值表!I17&lt;&gt;"",IF(组合逻辑真值表!I17=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I17=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J16" s="16" t="str">
+      <c r="J16" s="3" t="str">
         <f>IF(组合逻辑真值表!J17&lt;&gt;"",IF(组合逻辑真值表!J17=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J17=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K16" s="16" t="str">
+      <c r="K16" s="3" t="str">
         <f>IF(组合逻辑真值表!K17&lt;&gt;"",IF(组合逻辑真值表!K17=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K17=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L16" s="16" t="str">
+      <c r="L16" s="3" t="str">
         <f>IF(组合逻辑真值表!L17&lt;&gt;"",IF(组合逻辑真值表!L17=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L17=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M16" s="3" t="str">
+      <c r="M16" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N16" s="4" t="str">
+      <c r="N16" s="12" t="str">
         <f>IF(组合逻辑真值表!M17=1,$M16&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O16" s="4" t="str">
+      <c r="O16" s="12" t="str">
         <f>IF(组合逻辑真值表!N17=1,$M16&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P16" s="4" t="str">
+      <c r="P16" s="12" t="str">
         <f>IF(组合逻辑真值表!O17=1,$M16&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q16" s="4" t="str">
+      <c r="Q16" s="12" t="str">
         <f>IF(组合逻辑真值表!P17=1,$M16&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R16" s="4" t="str">
+      <c r="R16" s="12" t="str">
         <f>IF(组合逻辑真值表!Q17=1,$M16&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S16" s="4" t="str">
+      <c r="S16" s="12" t="str">
         <f>IF(组合逻辑真值表!R17=1,$M16&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T16" s="4" t="str">
+      <c r="T16" s="12" t="str">
         <f>IF(组合逻辑真值表!S17=1,$M16&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U16" s="4" t="str">
+      <c r="U16" s="12" t="str">
         <f>IF(组合逻辑真值表!T17=1,$M16&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V16" s="4" t="str">
+      <c r="V16" s="12" t="str">
         <f>IF(组合逻辑真值表!U17=1,$M16&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W16" s="4" t="str">
+      <c r="W16" s="12" t="str">
         <f>IF(组合逻辑真值表!V17=1,$M16&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X16" s="4" t="str">
+      <c r="X16" s="12" t="str">
         <f>IF(组合逻辑真值表!W17=1,$M16&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y16" s="4" t="str">
+      <c r="Y16" s="12" t="str">
         <f>IF(组合逻辑真值表!X17=1,$M16&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="str">
+    <row r="17" spans="1:25">
+      <c r="A17" s="3" t="str">
         <f>IF(组合逻辑真值表!A18&lt;&gt;"",IF(组合逻辑真值表!A18=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A18=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="3" t="str">
         <f>IF(组合逻辑真值表!B18&lt;&gt;"",IF(组合逻辑真值表!B18=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B18=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="3" t="str">
         <f>IF(组合逻辑真值表!C18&lt;&gt;"",IF(组合逻辑真值表!C18=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C18=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" s="3" t="str">
         <f>IF(组合逻辑真值表!D18&lt;&gt;"",IF(组合逻辑真值表!D18=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D18=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="E17" s="3" t="str">
         <f>IF(组合逻辑真值表!E18&lt;&gt;"",IF(组合逻辑真值表!E18=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E18=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F17" s="16" t="str">
+      <c r="F17" s="3" t="str">
         <f>IF(组合逻辑真值表!F18&lt;&gt;"",IF(组合逻辑真值表!F18=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F18=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G17" s="16" t="str">
+      <c r="G17" s="3" t="str">
         <f>IF(组合逻辑真值表!G18&lt;&gt;"",IF(组合逻辑真值表!G18=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G18=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H17" s="16" t="str">
+      <c r="H17" s="3" t="str">
         <f>IF(组合逻辑真值表!H18&lt;&gt;"",IF(组合逻辑真值表!H18=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H18=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I17" s="16" t="str">
+      <c r="I17" s="3" t="str">
         <f>IF(组合逻辑真值表!I18&lt;&gt;"",IF(组合逻辑真值表!I18=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I18=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J17" s="16" t="str">
+      <c r="J17" s="3" t="str">
         <f>IF(组合逻辑真值表!J18&lt;&gt;"",IF(组合逻辑真值表!J18=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J18=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K17" s="16" t="str">
+      <c r="K17" s="3" t="str">
         <f>IF(组合逻辑真值表!K18&lt;&gt;"",IF(组合逻辑真值表!K18=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K18=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L17" s="16" t="str">
+      <c r="L17" s="3" t="str">
         <f>IF(组合逻辑真值表!L18&lt;&gt;"",IF(组合逻辑真值表!L18=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L18=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M17" s="3" t="str">
+      <c r="M17" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N17" s="4" t="str">
+      <c r="N17" s="12" t="str">
         <f>IF(组合逻辑真值表!M18=1,$M17&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O17" s="4" t="str">
+      <c r="O17" s="12" t="str">
         <f>IF(组合逻辑真值表!N18=1,$M17&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P17" s="4" t="str">
+      <c r="P17" s="12" t="str">
         <f>IF(组合逻辑真值表!O18=1,$M17&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q17" s="4" t="str">
+      <c r="Q17" s="12" t="str">
         <f>IF(组合逻辑真值表!P18=1,$M17&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R17" s="4" t="str">
+      <c r="R17" s="12" t="str">
         <f>IF(组合逻辑真值表!Q18=1,$M17&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S17" s="4" t="str">
+      <c r="S17" s="12" t="str">
         <f>IF(组合逻辑真值表!R18=1,$M17&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T17" s="4" t="str">
+      <c r="T17" s="12" t="str">
         <f>IF(组合逻辑真值表!S18=1,$M17&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U17" s="4" t="str">
+      <c r="U17" s="12" t="str">
         <f>IF(组合逻辑真值表!T18=1,$M17&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V17" s="4" t="str">
+      <c r="V17" s="12" t="str">
         <f>IF(组合逻辑真值表!U18=1,$M17&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W17" s="4" t="str">
+      <c r="W17" s="12" t="str">
         <f>IF(组合逻辑真值表!V18=1,$M17&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X17" s="4" t="str">
+      <c r="X17" s="12" t="str">
         <f>IF(组合逻辑真值表!W18=1,$M17&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y17" s="4" t="str">
+      <c r="Y17" s="12" t="str">
         <f>IF(组合逻辑真值表!X18=1,$M17&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="str">
+    <row r="18" spans="1:25">
+      <c r="A18" s="3" t="str">
         <f>IF(组合逻辑真值表!A19&lt;&gt;"",IF(组合逻辑真值表!A19=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A19=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="3" t="str">
         <f>IF(组合逻辑真值表!B19&lt;&gt;"",IF(组合逻辑真值表!B19=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B19=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="3" t="str">
         <f>IF(组合逻辑真值表!C19&lt;&gt;"",IF(组合逻辑真值表!C19=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C19=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="3" t="str">
         <f>IF(组合逻辑真值表!D19&lt;&gt;"",IF(组合逻辑真值表!D19=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D19=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="3" t="str">
         <f>IF(组合逻辑真值表!E19&lt;&gt;"",IF(组合逻辑真值表!E19=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E19=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F18" s="16" t="str">
+      <c r="F18" s="3" t="str">
         <f>IF(组合逻辑真值表!F19&lt;&gt;"",IF(组合逻辑真值表!F19=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F19=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="3" t="str">
         <f>IF(组合逻辑真值表!G19&lt;&gt;"",IF(组合逻辑真值表!G19=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G19=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H18" s="16" t="str">
+      <c r="H18" s="3" t="str">
         <f>IF(组合逻辑真值表!H19&lt;&gt;"",IF(组合逻辑真值表!H19=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H19=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I18" s="16" t="str">
+      <c r="I18" s="3" t="str">
         <f>IF(组合逻辑真值表!I19&lt;&gt;"",IF(组合逻辑真值表!I19=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I19=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J18" s="16" t="str">
+      <c r="J18" s="3" t="str">
         <f>IF(组合逻辑真值表!J19&lt;&gt;"",IF(组合逻辑真值表!J19=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J19=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K18" s="16" t="str">
+      <c r="K18" s="3" t="str">
         <f>IF(组合逻辑真值表!K19&lt;&gt;"",IF(组合逻辑真值表!K19=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K19=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L18" s="16" t="str">
+      <c r="L18" s="3" t="str">
         <f>IF(组合逻辑真值表!L19&lt;&gt;"",IF(组合逻辑真值表!L19=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L19=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M18" s="3" t="str">
+      <c r="M18" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N18" s="4" t="str">
+      <c r="N18" s="12" t="str">
         <f>IF(组合逻辑真值表!M19=1,$M18&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O18" s="4" t="str">
+      <c r="O18" s="12" t="str">
         <f>IF(组合逻辑真值表!N19=1,$M18&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P18" s="4" t="str">
+      <c r="P18" s="12" t="str">
         <f>IF(组合逻辑真值表!O19=1,$M18&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q18" s="4" t="str">
+      <c r="Q18" s="12" t="str">
         <f>IF(组合逻辑真值表!P19=1,$M18&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R18" s="4" t="str">
+      <c r="R18" s="12" t="str">
         <f>IF(组合逻辑真值表!Q19=1,$M18&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S18" s="4" t="str">
+      <c r="S18" s="12" t="str">
         <f>IF(组合逻辑真值表!R19=1,$M18&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T18" s="4" t="str">
+      <c r="T18" s="12" t="str">
         <f>IF(组合逻辑真值表!S19=1,$M18&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U18" s="4" t="str">
+      <c r="U18" s="12" t="str">
         <f>IF(组合逻辑真值表!T19=1,$M18&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V18" s="4" t="str">
+      <c r="V18" s="12" t="str">
         <f>IF(组合逻辑真值表!U19=1,$M18&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W18" s="4" t="str">
+      <c r="W18" s="12" t="str">
         <f>IF(组合逻辑真值表!V19=1,$M18&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X18" s="4" t="str">
+      <c r="X18" s="12" t="str">
         <f>IF(组合逻辑真值表!W19=1,$M18&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y18" s="4" t="str">
+      <c r="Y18" s="12" t="str">
         <f>IF(组合逻辑真值表!X19=1,$M18&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="str">
+    <row r="19" ht="15" spans="1:25">
+      <c r="A19" s="3" t="str">
         <f>IF(组合逻辑真值表!A20&lt;&gt;"",IF(组合逻辑真值表!A20=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A20=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="3" t="str">
         <f>IF(组合逻辑真值表!B20&lt;&gt;"",IF(组合逻辑真值表!B20=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B20=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="3" t="str">
         <f>IF(组合逻辑真值表!C20&lt;&gt;"",IF(组合逻辑真值表!C20=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C20=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="3" t="str">
         <f>IF(组合逻辑真值表!D20&lt;&gt;"",IF(组合逻辑真值表!D20=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D20=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="3" t="str">
         <f>IF(组合逻辑真值表!E20&lt;&gt;"",IF(组合逻辑真值表!E20=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E20=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F19" s="16" t="str">
+      <c r="F19" s="3" t="str">
         <f>IF(组合逻辑真值表!F20&lt;&gt;"",IF(组合逻辑真值表!F20=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F20=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="3" t="str">
         <f>IF(组合逻辑真值表!G20&lt;&gt;"",IF(组合逻辑真值表!G20=1,组合逻辑真值表!G$2&amp;"&amp;",IF(组合逻辑真值表!G20=0,"~"&amp;组合逻辑真值表!G$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="H19" s="16" t="str">
+      <c r="H19" s="3" t="str">
         <f>IF(组合逻辑真值表!H20&lt;&gt;"",IF(组合逻辑真值表!H20=1,组合逻辑真值表!H$2&amp;"&amp;",IF(组合逻辑真值表!H20=0,"~"&amp;组合逻辑真值表!H$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="3" t="str">
         <f>IF(组合逻辑真值表!I20&lt;&gt;"",IF(组合逻辑真值表!I20=1,组合逻辑真值表!I$2&amp;"&amp;",IF(组合逻辑真值表!I20=0,"~"&amp;组合逻辑真值表!I$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="J19" s="16" t="str">
+      <c r="J19" s="3" t="str">
         <f>IF(组合逻辑真值表!J20&lt;&gt;"",IF(组合逻辑真值表!J20=1,组合逻辑真值表!J$2&amp;"&amp;",IF(组合逻辑真值表!J20=0,"~"&amp;组合逻辑真值表!J$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="K19" s="16" t="str">
+      <c r="K19" s="3" t="str">
         <f>IF(组合逻辑真值表!K20&lt;&gt;"",IF(组合逻辑真值表!K20=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K20=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L19" s="16" t="str">
+      <c r="L19" s="3" t="str">
         <f>IF(组合逻辑真值表!L20&lt;&gt;"",IF(组合逻辑真值表!L20=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L20=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M19" s="3" t="str">
+      <c r="M19" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N19" s="4" t="str">
+      <c r="N19" s="12" t="str">
         <f>IF(组合逻辑真值表!M20=1,$M19&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O19" s="4" t="str">
+      <c r="O19" s="12" t="str">
         <f>IF(组合逻辑真值表!N20=1,$M19&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P19" s="4" t="str">
+      <c r="P19" s="12" t="str">
         <f>IF(组合逻辑真值表!O20=1,$M19&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q19" s="4" t="str">
+      <c r="Q19" s="12" t="str">
         <f>IF(组合逻辑真值表!P20=1,$M19&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R19" s="4" t="str">
+      <c r="R19" s="12" t="str">
         <f>IF(组合逻辑真值表!Q20=1,$M19&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S19" s="4" t="str">
+      <c r="S19" s="12" t="str">
         <f>IF(组合逻辑真值表!R20=1,$M19&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T19" s="4" t="str">
+      <c r="T19" s="12" t="str">
         <f>IF(组合逻辑真值表!S20=1,$M19&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U19" s="4" t="str">
+      <c r="U19" s="12" t="str">
         <f>IF(组合逻辑真值表!T20=1,$M19&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V19" s="4" t="str">
+      <c r="V19" s="12" t="str">
         <f>IF(组合逻辑真值表!U20=1,$M19&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W19" s="4" t="str">
+      <c r="W19" s="12" t="str">
         <f>IF(组合逻辑真值表!V20=1,$M19&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X19" s="4" t="str">
+      <c r="X19" s="12" t="str">
         <f>IF(组合逻辑真值表!W20=1,$M19&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y19" s="4" t="str">
+      <c r="Y19" s="12" t="str">
         <f>IF(组合逻辑真值表!X20=1,$M19&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="str">
+    <row r="20" hidden="1" spans="1:25">
+      <c r="A20" s="3" t="str">
         <f>IF(组合逻辑真值表!A21&lt;&gt;"",IF(组合逻辑真值表!A21=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A21=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="3" t="str">
         <f>IF(组合逻辑真值表!B21&lt;&gt;"",IF(组合逻辑真值表!B21=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B21=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="3" t="str">
         <f>IF(组合逻辑真值表!C21&lt;&gt;"",IF(组合逻辑真值表!C21=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C21=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="3" t="str">
         <f>IF(组合逻辑真值表!D21&lt;&gt;"",IF(组合逻辑真值表!D21=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D21=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" s="3" t="str">
         <f>IF(组合逻辑真值表!E21&lt;&gt;"",IF(组合逻辑真值表!E21=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E21=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F20" s="16" t="str">
+      <c r="F20" s="3" t="str">
         <f>IF(组合逻辑真值表!F21&lt;&gt;"",IF(组合逻辑真值表!F21=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F21=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16" t="str">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="str">
         <f>IF(组合逻辑真值表!K21&lt;&gt;"",IF(组合逻辑真值表!K21=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K21=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L20" s="16" t="str">
+      <c r="L20" s="3" t="str">
         <f>IF(组合逻辑真值表!L21&lt;&gt;"",IF(组合逻辑真值表!L21=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L21=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M20" s="3" t="str">
+      <c r="M20" s="11" t="str">
         <f t="shared" ref="M20:M30" si="1">IF(LEN(CONCATENATE(A20,B20,C20,D20,E20,F20,K20,L20))=0,"",LEFT(CONCATENATE(A20,B20,C20,D20,E20,F20,K20,L20),LEN(CONCATENATE(A20,B20,C20,D20,E20,F20,K20,L20))-1))</f>
         <v/>
       </c>
-      <c r="N20" s="4" t="str">
+      <c r="N20" s="12" t="str">
         <f>IF(组合逻辑真值表!M21=1,$M20&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O20" s="4" t="str">
+      <c r="O20" s="12" t="str">
         <f>IF(组合逻辑真值表!N21=1,$M20&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P20" s="4" t="str">
+      <c r="P20" s="12" t="str">
         <f>IF(组合逻辑真值表!O21=1,$M20&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q20" s="4" t="str">
+      <c r="Q20" s="12" t="str">
         <f>IF(组合逻辑真值表!P21=1,$M20&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R20" s="4" t="str">
+      <c r="R20" s="12" t="str">
         <f>IF(组合逻辑真值表!Q21=1,$M20&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S20" s="4" t="str">
+      <c r="S20" s="12" t="str">
         <f>IF(组合逻辑真值表!R21=1,$M20&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T20" s="4" t="str">
+      <c r="T20" s="12" t="str">
         <f>IF(组合逻辑真值表!S21=1,$M20&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U20" s="4" t="str">
+      <c r="U20" s="12" t="str">
         <f>IF(组合逻辑真值表!T21=1,$M20&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V20" s="4" t="str">
+      <c r="V20" s="12" t="str">
         <f>IF(组合逻辑真值表!U21=1,$M20&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W20" s="4" t="str">
+      <c r="W20" s="12" t="str">
         <f>IF(组合逻辑真值表!V21=1,$M20&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X20" s="4" t="str">
+      <c r="X20" s="12" t="str">
         <f>IF(组合逻辑真值表!W21=1,$M20&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y20" s="4" t="str">
+      <c r="Y20" s="12" t="str">
         <f>IF(组合逻辑真值表!X21=1,$M20&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="str">
+    <row r="21" hidden="1" spans="1:25">
+      <c r="A21" s="3" t="str">
         <f>IF(组合逻辑真值表!A22&lt;&gt;"",IF(组合逻辑真值表!A22=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A22=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="3" t="str">
         <f>IF(组合逻辑真值表!B22&lt;&gt;"",IF(组合逻辑真值表!B22=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B22=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="3" t="str">
         <f>IF(组合逻辑真值表!C22&lt;&gt;"",IF(组合逻辑真值表!C22=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C22=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="3" t="str">
         <f>IF(组合逻辑真值表!D22&lt;&gt;"",IF(组合逻辑真值表!D22=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D22=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="3" t="str">
         <f>IF(组合逻辑真值表!E22&lt;&gt;"",IF(组合逻辑真值表!E22=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E22=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F21" s="16" t="str">
+      <c r="F21" s="3" t="str">
         <f>IF(组合逻辑真值表!F22&lt;&gt;"",IF(组合逻辑真值表!F22=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F22=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16" t="str">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="str">
         <f>IF(组合逻辑真值表!K22&lt;&gt;"",IF(组合逻辑真值表!K22=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K22=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L21" s="16" t="str">
+      <c r="L21" s="3" t="str">
         <f>IF(组合逻辑真值表!L22&lt;&gt;"",IF(组合逻辑真值表!L22=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L22=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M21" s="3" t="str">
+      <c r="M21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N21" s="4" t="str">
+      <c r="N21" s="12" t="str">
         <f>IF(组合逻辑真值表!M22=1,$M21&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O21" s="4" t="str">
+      <c r="O21" s="12" t="str">
         <f>IF(组合逻辑真值表!N22=1,$M21&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P21" s="4" t="str">
+      <c r="P21" s="12" t="str">
         <f>IF(组合逻辑真值表!O22=1,$M21&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q21" s="4" t="str">
+      <c r="Q21" s="12" t="str">
         <f>IF(组合逻辑真值表!P22=1,$M21&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R21" s="4" t="str">
+      <c r="R21" s="12" t="str">
         <f>IF(组合逻辑真值表!Q22=1,$M21&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S21" s="4" t="str">
+      <c r="S21" s="12" t="str">
         <f>IF(组合逻辑真值表!R22=1,$M21&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T21" s="4" t="str">
+      <c r="T21" s="12" t="str">
         <f>IF(组合逻辑真值表!S22=1,$M21&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U21" s="4" t="str">
+      <c r="U21" s="12" t="str">
         <f>IF(组合逻辑真值表!T22=1,$M21&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V21" s="4" t="str">
+      <c r="V21" s="12" t="str">
         <f>IF(组合逻辑真值表!U22=1,$M21&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W21" s="4" t="str">
+      <c r="W21" s="12" t="str">
         <f>IF(组合逻辑真值表!V22=1,$M21&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X21" s="4" t="str">
+      <c r="X21" s="12" t="str">
         <f>IF(组合逻辑真值表!W22=1,$M21&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y21" s="4" t="str">
+      <c r="Y21" s="12" t="str">
         <f>IF(组合逻辑真值表!X22=1,$M21&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="str">
+    <row r="22" hidden="1" spans="1:25">
+      <c r="A22" s="3" t="str">
         <f>IF(组合逻辑真值表!A23&lt;&gt;"",IF(组合逻辑真值表!A23=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A23=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="3" t="str">
         <f>IF(组合逻辑真值表!B23&lt;&gt;"",IF(组合逻辑真值表!B23=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B23=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="3" t="str">
         <f>IF(组合逻辑真值表!C23&lt;&gt;"",IF(组合逻辑真值表!C23=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C23=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="3" t="str">
         <f>IF(组合逻辑真值表!D23&lt;&gt;"",IF(组合逻辑真值表!D23=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D23=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" s="3" t="str">
         <f>IF(组合逻辑真值表!E23&lt;&gt;"",IF(组合逻辑真值表!E23=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E23=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F22" s="16" t="str">
+      <c r="F22" s="3" t="str">
         <f>IF(组合逻辑真值表!F23&lt;&gt;"",IF(组合逻辑真值表!F23=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F23=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16" t="str">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="str">
         <f>IF(组合逻辑真值表!K23&lt;&gt;"",IF(组合逻辑真值表!K23=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K23=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L22" s="16" t="str">
+      <c r="L22" s="3" t="str">
         <f>IF(组合逻辑真值表!L23&lt;&gt;"",IF(组合逻辑真值表!L23=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L23=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M22" s="3" t="str">
+      <c r="M22" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N22" s="4" t="str">
+      <c r="N22" s="12" t="str">
         <f>IF(组合逻辑真值表!M23=1,$M22&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O22" s="4" t="str">
+      <c r="O22" s="12" t="str">
         <f>IF(组合逻辑真值表!N23=1,$M22&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P22" s="4" t="str">
+      <c r="P22" s="12" t="str">
         <f>IF(组合逻辑真值表!O23=1,$M22&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q22" s="4" t="str">
+      <c r="Q22" s="12" t="str">
         <f>IF(组合逻辑真值表!P23=1,$M22&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R22" s="4" t="str">
+      <c r="R22" s="12" t="str">
         <f>IF(组合逻辑真值表!Q23=1,$M22&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S22" s="4" t="str">
+      <c r="S22" s="12" t="str">
         <f>IF(组合逻辑真值表!R23=1,$M22&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T22" s="4" t="str">
+      <c r="T22" s="12" t="str">
         <f>IF(组合逻辑真值表!S23=1,$M22&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U22" s="4" t="str">
+      <c r="U22" s="12" t="str">
         <f>IF(组合逻辑真值表!T23=1,$M22&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V22" s="4" t="str">
+      <c r="V22" s="12" t="str">
         <f>IF(组合逻辑真值表!U23=1,$M22&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W22" s="4" t="str">
+      <c r="W22" s="12" t="str">
         <f>IF(组合逻辑真值表!V23=1,$M22&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X22" s="4" t="str">
+      <c r="X22" s="12" t="str">
         <f>IF(组合逻辑真值表!W23=1,$M22&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y22" s="4" t="str">
+      <c r="Y22" s="12" t="str">
         <f>IF(组合逻辑真值表!X23=1,$M22&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="str">
+    <row r="23" hidden="1" spans="1:25">
+      <c r="A23" s="3" t="str">
         <f>IF(组合逻辑真值表!A24&lt;&gt;"",IF(组合逻辑真值表!A24=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A24=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="3" t="str">
         <f>IF(组合逻辑真值表!B24&lt;&gt;"",IF(组合逻辑真值表!B24=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B24=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="3" t="str">
         <f>IF(组合逻辑真值表!C24&lt;&gt;"",IF(组合逻辑真值表!C24=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C24=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="3" t="str">
         <f>IF(组合逻辑真值表!D24&lt;&gt;"",IF(组合逻辑真值表!D24=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D24=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" s="3" t="str">
         <f>IF(组合逻辑真值表!E24&lt;&gt;"",IF(组合逻辑真值表!E24=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E24=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F23" s="16" t="str">
+      <c r="F23" s="3" t="str">
         <f>IF(组合逻辑真值表!F24&lt;&gt;"",IF(组合逻辑真值表!F24=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F24=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16" t="str">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="str">
         <f>IF(组合逻辑真值表!K24&lt;&gt;"",IF(组合逻辑真值表!K24=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K24=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L23" s="16" t="str">
+      <c r="L23" s="3" t="str">
         <f>IF(组合逻辑真值表!L24&lt;&gt;"",IF(组合逻辑真值表!L24=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L24=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M23" s="3" t="str">
+      <c r="M23" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N23" s="4" t="str">
+      <c r="N23" s="12" t="str">
         <f>IF(组合逻辑真值表!M24=1,$M23&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O23" s="4" t="str">
+      <c r="O23" s="12" t="str">
         <f>IF(组合逻辑真值表!N24=1,$M23&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P23" s="4" t="str">
+      <c r="P23" s="12" t="str">
         <f>IF(组合逻辑真值表!O24=1,$M23&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q23" s="4" t="str">
+      <c r="Q23" s="12" t="str">
         <f>IF(组合逻辑真值表!P24=1,$M23&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R23" s="4" t="str">
+      <c r="R23" s="12" t="str">
         <f>IF(组合逻辑真值表!Q24=1,$M23&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S23" s="4" t="str">
+      <c r="S23" s="12" t="str">
         <f>IF(组合逻辑真值表!R24=1,$M23&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T23" s="4" t="str">
+      <c r="T23" s="12" t="str">
         <f>IF(组合逻辑真值表!S24=1,$M23&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U23" s="4" t="str">
+      <c r="U23" s="12" t="str">
         <f>IF(组合逻辑真值表!T24=1,$M23&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V23" s="4" t="str">
+      <c r="V23" s="12" t="str">
         <f>IF(组合逻辑真值表!U24=1,$M23&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W23" s="4" t="str">
+      <c r="W23" s="12" t="str">
         <f>IF(组合逻辑真值表!V24=1,$M23&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X23" s="4" t="str">
+      <c r="X23" s="12" t="str">
         <f>IF(组合逻辑真值表!W24=1,$M23&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y23" s="4" t="str">
+      <c r="Y23" s="12" t="str">
         <f>IF(组合逻辑真值表!X24=1,$M23&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="str">
+    <row r="24" hidden="1" spans="1:25">
+      <c r="A24" s="3" t="str">
         <f>IF(组合逻辑真值表!A25&lt;&gt;"",IF(组合逻辑真值表!A25=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A25=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="3" t="str">
         <f>IF(组合逻辑真值表!B25&lt;&gt;"",IF(组合逻辑真值表!B25=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B25=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="3" t="str">
         <f>IF(组合逻辑真值表!C25&lt;&gt;"",IF(组合逻辑真值表!C25=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C25=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="3" t="str">
         <f>IF(组合逻辑真值表!D25&lt;&gt;"",IF(组合逻辑真值表!D25=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D25=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E24" s="16" t="str">
+      <c r="E24" s="3" t="str">
         <f>IF(组合逻辑真值表!E25&lt;&gt;"",IF(组合逻辑真值表!E25=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E25=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F24" s="16" t="str">
+      <c r="F24" s="3" t="str">
         <f>IF(组合逻辑真值表!F25&lt;&gt;"",IF(组合逻辑真值表!F25=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F25=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16" t="str">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="str">
         <f>IF(组合逻辑真值表!K25&lt;&gt;"",IF(组合逻辑真值表!K25=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K25=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L24" s="16" t="str">
+      <c r="L24" s="3" t="str">
         <f>IF(组合逻辑真值表!L25&lt;&gt;"",IF(组合逻辑真值表!L25=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L25=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M24" s="3" t="str">
+      <c r="M24" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N24" s="4" t="str">
+      <c r="N24" s="12" t="str">
         <f>IF(组合逻辑真值表!M25=1,$M24&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O24" s="4" t="str">
+      <c r="O24" s="12" t="str">
         <f>IF(组合逻辑真值表!N25=1,$M24&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P24" s="4" t="str">
+      <c r="P24" s="12" t="str">
         <f>IF(组合逻辑真值表!O25=1,$M24&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q24" s="4" t="str">
+      <c r="Q24" s="12" t="str">
         <f>IF(组合逻辑真值表!P25=1,$M24&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R24" s="4" t="str">
+      <c r="R24" s="12" t="str">
         <f>IF(组合逻辑真值表!Q25=1,$M24&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S24" s="4" t="str">
+      <c r="S24" s="12" t="str">
         <f>IF(组合逻辑真值表!R25=1,$M24&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T24" s="4" t="str">
+      <c r="T24" s="12" t="str">
         <f>IF(组合逻辑真值表!S25=1,$M24&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U24" s="4" t="str">
+      <c r="U24" s="12" t="str">
         <f>IF(组合逻辑真值表!T25=1,$M24&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V24" s="4" t="str">
+      <c r="V24" s="12" t="str">
         <f>IF(组合逻辑真值表!U25=1,$M24&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W24" s="4" t="str">
+      <c r="W24" s="12" t="str">
         <f>IF(组合逻辑真值表!V25=1,$M24&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X24" s="4" t="str">
+      <c r="X24" s="12" t="str">
         <f>IF(组合逻辑真值表!W25=1,$M24&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y24" s="4" t="str">
+      <c r="Y24" s="12" t="str">
         <f>IF(组合逻辑真值表!X25=1,$M24&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="str">
+    <row r="25" hidden="1" spans="1:25">
+      <c r="A25" s="3" t="str">
         <f>IF(组合逻辑真值表!A26&lt;&gt;"",IF(组合逻辑真值表!A26=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A26=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B25" s="16" t="str">
+      <c r="B25" s="3" t="str">
         <f>IF(组合逻辑真值表!B26&lt;&gt;"",IF(组合逻辑真值表!B26=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B26=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="3" t="str">
         <f>IF(组合逻辑真值表!C26&lt;&gt;"",IF(组合逻辑真值表!C26=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C26=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="3" t="str">
         <f>IF(组合逻辑真值表!D26&lt;&gt;"",IF(组合逻辑真值表!D26=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D26=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E25" s="16" t="str">
+      <c r="E25" s="3" t="str">
         <f>IF(组合逻辑真值表!E26&lt;&gt;"",IF(组合逻辑真值表!E26=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E26=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F25" s="16" t="str">
+      <c r="F25" s="3" t="str">
         <f>IF(组合逻辑真值表!F26&lt;&gt;"",IF(组合逻辑真值表!F26=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F26=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16" t="str">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="str">
         <f>IF(组合逻辑真值表!K26&lt;&gt;"",IF(组合逻辑真值表!K26=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K26=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L25" s="16" t="str">
+      <c r="L25" s="3" t="str">
         <f>IF(组合逻辑真值表!L26&lt;&gt;"",IF(组合逻辑真值表!L26=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L26=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M25" s="3" t="str">
+      <c r="M25" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N25" s="4" t="str">
+      <c r="N25" s="12" t="str">
         <f>IF(组合逻辑真值表!M26=1,$M25&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O25" s="4" t="str">
+      <c r="O25" s="12" t="str">
         <f>IF(组合逻辑真值表!N26=1,$M25&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P25" s="4" t="str">
+      <c r="P25" s="12" t="str">
         <f>IF(组合逻辑真值表!O26=1,$M25&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q25" s="4" t="str">
+      <c r="Q25" s="12" t="str">
         <f>IF(组合逻辑真值表!P26=1,$M25&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R25" s="4" t="str">
+      <c r="R25" s="12" t="str">
         <f>IF(组合逻辑真值表!Q26=1,$M25&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S25" s="4" t="str">
+      <c r="S25" s="12" t="str">
         <f>IF(组合逻辑真值表!R26=1,$M25&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T25" s="4" t="str">
+      <c r="T25" s="12" t="str">
         <f>IF(组合逻辑真值表!S26=1,$M25&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U25" s="4" t="str">
+      <c r="U25" s="12" t="str">
         <f>IF(组合逻辑真值表!T26=1,$M25&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V25" s="4" t="str">
+      <c r="V25" s="12" t="str">
         <f>IF(组合逻辑真值表!U26=1,$M25&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W25" s="4" t="str">
+      <c r="W25" s="12" t="str">
         <f>IF(组合逻辑真值表!V26=1,$M25&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X25" s="4" t="str">
+      <c r="X25" s="12" t="str">
         <f>IF(组合逻辑真值表!W26=1,$M25&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y25" s="4" t="str">
+      <c r="Y25" s="12" t="str">
         <f>IF(组合逻辑真值表!X26=1,$M25&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="str">
+    <row r="26" hidden="1" spans="1:25">
+      <c r="A26" s="3" t="str">
         <f>IF(组合逻辑真值表!A27&lt;&gt;"",IF(组合逻辑真值表!A27=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A27=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B26" s="16" t="str">
+      <c r="B26" s="3" t="str">
         <f>IF(组合逻辑真值表!B27&lt;&gt;"",IF(组合逻辑真值表!B27=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B27=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" s="3" t="str">
         <f>IF(组合逻辑真值表!C27&lt;&gt;"",IF(组合逻辑真值表!C27=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C27=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="3" t="str">
         <f>IF(组合逻辑真值表!D27&lt;&gt;"",IF(组合逻辑真值表!D27=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D27=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" s="3" t="str">
         <f>IF(组合逻辑真值表!E27&lt;&gt;"",IF(组合逻辑真值表!E27=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E27=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F26" s="16" t="str">
+      <c r="F26" s="3" t="str">
         <f>IF(组合逻辑真值表!F27&lt;&gt;"",IF(组合逻辑真值表!F27=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F27=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16" t="str">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="str">
         <f>IF(组合逻辑真值表!K27&lt;&gt;"",IF(组合逻辑真值表!K27=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K27=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L26" s="16" t="str">
+      <c r="L26" s="3" t="str">
         <f>IF(组合逻辑真值表!L27&lt;&gt;"",IF(组合逻辑真值表!L27=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L27=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M26" s="3" t="str">
+      <c r="M26" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N26" s="4" t="str">
+      <c r="N26" s="12" t="str">
         <f>IF(组合逻辑真值表!M27=1,$M26&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O26" s="4" t="str">
+      <c r="O26" s="12" t="str">
         <f>IF(组合逻辑真值表!N27=1,$M26&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P26" s="4" t="str">
+      <c r="P26" s="12" t="str">
         <f>IF(组合逻辑真值表!O27=1,$M26&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q26" s="4" t="str">
+      <c r="Q26" s="12" t="str">
         <f>IF(组合逻辑真值表!P27=1,$M26&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R26" s="4" t="str">
+      <c r="R26" s="12" t="str">
         <f>IF(组合逻辑真值表!Q27=1,$M26&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S26" s="4" t="str">
+      <c r="S26" s="12" t="str">
         <f>IF(组合逻辑真值表!R27=1,$M26&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T26" s="4" t="str">
+      <c r="T26" s="12" t="str">
         <f>IF(组合逻辑真值表!S27=1,$M26&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U26" s="4" t="str">
+      <c r="U26" s="12" t="str">
         <f>IF(组合逻辑真值表!T27=1,$M26&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V26" s="4" t="str">
+      <c r="V26" s="12" t="str">
         <f>IF(组合逻辑真值表!U27=1,$M26&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W26" s="4" t="str">
+      <c r="W26" s="12" t="str">
         <f>IF(组合逻辑真值表!V27=1,$M26&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X26" s="4" t="str">
+      <c r="X26" s="12" t="str">
         <f>IF(组合逻辑真值表!W27=1,$M26&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y26" s="4" t="str">
+      <c r="Y26" s="12" t="str">
         <f>IF(组合逻辑真值表!X27=1,$M26&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="str">
+    <row r="27" hidden="1" spans="1:25">
+      <c r="A27" s="3" t="str">
         <f>IF(组合逻辑真值表!A28&lt;&gt;"",IF(组合逻辑真值表!A28=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A28=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B27" s="16" t="str">
+      <c r="B27" s="3" t="str">
         <f>IF(组合逻辑真值表!B28&lt;&gt;"",IF(组合逻辑真值表!B28=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B28=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="3" t="str">
         <f>IF(组合逻辑真值表!C28&lt;&gt;"",IF(组合逻辑真值表!C28=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C28=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="3" t="str">
         <f>IF(组合逻辑真值表!D28&lt;&gt;"",IF(组合逻辑真值表!D28=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D28=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E27" s="16" t="str">
+      <c r="E27" s="3" t="str">
         <f>IF(组合逻辑真值表!E28&lt;&gt;"",IF(组合逻辑真值表!E28=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E28=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F27" s="16" t="str">
+      <c r="F27" s="3" t="str">
         <f>IF(组合逻辑真值表!F28&lt;&gt;"",IF(组合逻辑真值表!F28=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F28=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16" t="str">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="str">
         <f>IF(组合逻辑真值表!K28&lt;&gt;"",IF(组合逻辑真值表!K28=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K28=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L27" s="16" t="str">
+      <c r="L27" s="3" t="str">
         <f>IF(组合逻辑真值表!L28&lt;&gt;"",IF(组合逻辑真值表!L28=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L28=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M27" s="3" t="str">
+      <c r="M27" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N27" s="4" t="str">
+      <c r="N27" s="12" t="str">
         <f>IF(组合逻辑真值表!M28=1,$M27&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O27" s="4" t="str">
+      <c r="O27" s="12" t="str">
         <f>IF(组合逻辑真值表!N28=1,$M27&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P27" s="4" t="str">
+      <c r="P27" s="12" t="str">
         <f>IF(组合逻辑真值表!O28=1,$M27&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q27" s="4" t="str">
+      <c r="Q27" s="12" t="str">
         <f>IF(组合逻辑真值表!P28=1,$M27&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R27" s="4" t="str">
+      <c r="R27" s="12" t="str">
         <f>IF(组合逻辑真值表!Q28=1,$M27&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S27" s="4" t="str">
+      <c r="S27" s="12" t="str">
         <f>IF(组合逻辑真值表!R28=1,$M27&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T27" s="4" t="str">
+      <c r="T27" s="12" t="str">
         <f>IF(组合逻辑真值表!S28=1,$M27&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U27" s="4" t="str">
+      <c r="U27" s="12" t="str">
         <f>IF(组合逻辑真值表!T28=1,$M27&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V27" s="4" t="str">
+      <c r="V27" s="12" t="str">
         <f>IF(组合逻辑真值表!U28=1,$M27&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W27" s="4" t="str">
+      <c r="W27" s="12" t="str">
         <f>IF(组合逻辑真值表!V28=1,$M27&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X27" s="4" t="str">
+      <c r="X27" s="12" t="str">
         <f>IF(组合逻辑真值表!W28=1,$M27&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y27" s="4" t="str">
+      <c r="Y27" s="12" t="str">
         <f>IF(组合逻辑真值表!X28=1,$M27&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="str">
+    <row r="28" hidden="1" spans="1:25">
+      <c r="A28" s="3" t="str">
         <f>IF(组合逻辑真值表!A29&lt;&gt;"",IF(组合逻辑真值表!A29=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A29=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B28" s="16" t="str">
+      <c r="B28" s="3" t="str">
         <f>IF(组合逻辑真值表!B29&lt;&gt;"",IF(组合逻辑真值表!B29=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B29=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="3" t="str">
         <f>IF(组合逻辑真值表!C29&lt;&gt;"",IF(组合逻辑真值表!C29=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C29=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="3" t="str">
         <f>IF(组合逻辑真值表!D29&lt;&gt;"",IF(组合逻辑真值表!D29=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D29=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E28" s="16" t="str">
+      <c r="E28" s="3" t="str">
         <f>IF(组合逻辑真值表!E29&lt;&gt;"",IF(组合逻辑真值表!E29=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E29=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F28" s="16" t="str">
+      <c r="F28" s="3" t="str">
         <f>IF(组合逻辑真值表!F29&lt;&gt;"",IF(组合逻辑真值表!F29=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F29=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16" t="str">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="str">
         <f>IF(组合逻辑真值表!K29&lt;&gt;"",IF(组合逻辑真值表!K29=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K29=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L28" s="16" t="str">
+      <c r="L28" s="3" t="str">
         <f>IF(组合逻辑真值表!L29&lt;&gt;"",IF(组合逻辑真值表!L29=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L29=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M28" s="3" t="str">
+      <c r="M28" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N28" s="4" t="str">
+      <c r="N28" s="12" t="str">
         <f>IF(组合逻辑真值表!M29=1,$M28&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O28" s="4" t="str">
+      <c r="O28" s="12" t="str">
         <f>IF(组合逻辑真值表!N29=1,$M28&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P28" s="4" t="str">
+      <c r="P28" s="12" t="str">
         <f>IF(组合逻辑真值表!O29=1,$M28&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q28" s="4" t="str">
+      <c r="Q28" s="12" t="str">
         <f>IF(组合逻辑真值表!P29=1,$M28&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R28" s="4" t="str">
+      <c r="R28" s="12" t="str">
         <f>IF(组合逻辑真值表!Q29=1,$M28&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S28" s="4" t="str">
+      <c r="S28" s="12" t="str">
         <f>IF(组合逻辑真值表!R29=1,$M28&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T28" s="4" t="str">
+      <c r="T28" s="12" t="str">
         <f>IF(组合逻辑真值表!S29=1,$M28&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U28" s="4" t="str">
+      <c r="U28" s="12" t="str">
         <f>IF(组合逻辑真值表!T29=1,$M28&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V28" s="4" t="str">
+      <c r="V28" s="12" t="str">
         <f>IF(组合逻辑真值表!U29=1,$M28&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W28" s="4" t="str">
+      <c r="W28" s="12" t="str">
         <f>IF(组合逻辑真值表!V29=1,$M28&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X28" s="4" t="str">
+      <c r="X28" s="12" t="str">
         <f>IF(组合逻辑真值表!W29=1,$M28&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y28" s="4" t="str">
+      <c r="Y28" s="12" t="str">
         <f>IF(组合逻辑真值表!X29=1,$M28&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="str">
+    <row r="29" hidden="1" spans="1:25">
+      <c r="A29" s="3" t="str">
         <f>IF(组合逻辑真值表!A30&lt;&gt;"",IF(组合逻辑真值表!A30=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A30=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B29" s="16" t="str">
+      <c r="B29" s="3" t="str">
         <f>IF(组合逻辑真值表!B30&lt;&gt;"",IF(组合逻辑真值表!B30=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B30=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="3" t="str">
         <f>IF(组合逻辑真值表!C30&lt;&gt;"",IF(组合逻辑真值表!C30=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C30=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="3" t="str">
         <f>IF(组合逻辑真值表!D30&lt;&gt;"",IF(组合逻辑真值表!D30=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D30=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E29" s="16" t="str">
+      <c r="E29" s="3" t="str">
         <f>IF(组合逻辑真值表!E30&lt;&gt;"",IF(组合逻辑真值表!E30=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E30=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F29" s="16" t="str">
+      <c r="F29" s="3" t="str">
         <f>IF(组合逻辑真值表!F30&lt;&gt;"",IF(组合逻辑真值表!F30=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F30=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16" t="str">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="str">
         <f>IF(组合逻辑真值表!K30&lt;&gt;"",IF(组合逻辑真值表!K30=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K30=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L29" s="16" t="str">
+      <c r="L29" s="3" t="str">
         <f>IF(组合逻辑真值表!L30&lt;&gt;"",IF(组合逻辑真值表!L30=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L30=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M29" s="3" t="str">
+      <c r="M29" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N29" s="4" t="str">
+      <c r="N29" s="12" t="str">
         <f>IF(组合逻辑真值表!M30=1,$M29&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O29" s="4" t="str">
+      <c r="O29" s="12" t="str">
         <f>IF(组合逻辑真值表!N30=1,$M29&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P29" s="4" t="str">
+      <c r="P29" s="12" t="str">
         <f>IF(组合逻辑真值表!O30=1,$M29&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q29" s="4" t="str">
+      <c r="Q29" s="12" t="str">
         <f>IF(组合逻辑真值表!P30=1,$M29&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R29" s="4" t="str">
+      <c r="R29" s="12" t="str">
         <f>IF(组合逻辑真值表!Q30=1,$M29&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S29" s="4" t="str">
+      <c r="S29" s="12" t="str">
         <f>IF(组合逻辑真值表!R30=1,$M29&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T29" s="4" t="str">
+      <c r="T29" s="12" t="str">
         <f>IF(组合逻辑真值表!S30=1,$M29&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U29" s="4" t="str">
+      <c r="U29" s="12" t="str">
         <f>IF(组合逻辑真值表!T30=1,$M29&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V29" s="4" t="str">
+      <c r="V29" s="12" t="str">
         <f>IF(组合逻辑真值表!U30=1,$M29&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W29" s="4" t="str">
+      <c r="W29" s="12" t="str">
         <f>IF(组合逻辑真值表!V30=1,$M29&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X29" s="4" t="str">
+      <c r="X29" s="12" t="str">
         <f>IF(组合逻辑真值表!W30=1,$M29&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y29" s="4" t="str">
+      <c r="Y29" s="12" t="str">
         <f>IF(组合逻辑真值表!X30=1,$M29&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="str">
+    <row r="30" ht="15" hidden="1" spans="1:25">
+      <c r="A30" s="3" t="str">
         <f>IF(组合逻辑真值表!A31&lt;&gt;"",IF(组合逻辑真值表!A31=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A31=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="3" t="str">
         <f>IF(组合逻辑真值表!B31&lt;&gt;"",IF(组合逻辑真值表!B31=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B31=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="3" t="str">
         <f>IF(组合逻辑真值表!C31&lt;&gt;"",IF(组合逻辑真值表!C31=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C31=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="D30" s="16" t="str">
+      <c r="D30" s="3" t="str">
         <f>IF(组合逻辑真值表!D31&lt;&gt;"",IF(组合逻辑真值表!D31=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D31=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="E30" s="16" t="str">
+      <c r="E30" s="3" t="str">
         <f>IF(组合逻辑真值表!E31&lt;&gt;"",IF(组合逻辑真值表!E31=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E31=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="F30" s="16" t="str">
+      <c r="F30" s="3" t="str">
         <f>IF(组合逻辑真值表!F31&lt;&gt;"",IF(组合逻辑真值表!F31=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F31=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16" t="str">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="str">
         <f>IF(组合逻辑真值表!K31&lt;&gt;"",IF(组合逻辑真值表!K31=1,组合逻辑真值表!K$2&amp;"&amp;",IF(组合逻辑真值表!K31=0,"~"&amp;组合逻辑真值表!K$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="L30" s="16" t="str">
+      <c r="L30" s="3" t="str">
         <f>IF(组合逻辑真值表!L31&lt;&gt;"",IF(组合逻辑真值表!L31=1,组合逻辑真值表!L$2&amp;"&amp;",IF(组合逻辑真值表!L31=0,"~"&amp;组合逻辑真值表!L$2&amp;"&amp;","")),"")</f>
         <v/>
       </c>
-      <c r="M30" s="3" t="str">
+      <c r="M30" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N30" s="4" t="str">
+      <c r="N30" s="12" t="str">
         <f>IF(组合逻辑真值表!M31=1,$M30&amp;"+","")</f>
         <v/>
       </c>
-      <c r="O30" s="4" t="str">
+      <c r="O30" s="12" t="str">
         <f>IF(组合逻辑真值表!N31=1,$M30&amp;"+","")</f>
         <v/>
       </c>
-      <c r="P30" s="4" t="str">
+      <c r="P30" s="12" t="str">
         <f>IF(组合逻辑真值表!O31=1,$M30&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Q30" s="4" t="str">
+      <c r="Q30" s="12" t="str">
         <f>IF(组合逻辑真值表!P31=1,$M30&amp;"+","")</f>
         <v/>
       </c>
-      <c r="R30" s="4" t="str">
+      <c r="R30" s="12" t="str">
         <f>IF(组合逻辑真值表!Q31=1,$M30&amp;"+","")</f>
         <v/>
       </c>
-      <c r="S30" s="4" t="str">
+      <c r="S30" s="12" t="str">
         <f>IF(组合逻辑真值表!R31=1,$M30&amp;"+","")</f>
         <v/>
       </c>
-      <c r="T30" s="4" t="str">
+      <c r="T30" s="12" t="str">
         <f>IF(组合逻辑真值表!S31=1,$M30&amp;"+","")</f>
         <v/>
       </c>
-      <c r="U30" s="4" t="str">
+      <c r="U30" s="12" t="str">
         <f>IF(组合逻辑真值表!T31=1,$M30&amp;"+","")</f>
         <v/>
       </c>
-      <c r="V30" s="4" t="str">
+      <c r="V30" s="12" t="str">
         <f>IF(组合逻辑真值表!U31=1,$M30&amp;"+","")</f>
         <v/>
       </c>
-      <c r="W30" s="4" t="str">
+      <c r="W30" s="12" t="str">
         <f>IF(组合逻辑真值表!V31=1,$M30&amp;"+","")</f>
         <v/>
       </c>
-      <c r="X30" s="4" t="str">
+      <c r="X30" s="12" t="str">
         <f>IF(组合逻辑真值表!W31=1,$M30&amp;"+","")</f>
         <v/>
       </c>
-      <c r="Y30" s="4" t="str">
+      <c r="Y30" s="12" t="str">
         <f>IF(组合逻辑真值表!X31=1,$M30&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="5" t="str">
+    <row r="31" ht="15.75" spans="1:25">
+      <c r="A31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="14" t="str">
         <f t="shared" ref="N31:O31" si="2">IF(LEN(N32)&gt;1,LEFT(N32,LEN(N32)-1),"")</f>
         <v/>
       </c>
-      <c r="O31" s="5" t="str">
+      <c r="O31" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P31" s="5" t="str">
+      <c r="P31" s="14" t="str">
         <f t="shared" ref="P31" si="3">IF(LEN(P32)&gt;1,LEFT(P32,LEN(P32)-1),"")</f>
         <v/>
       </c>
-      <c r="Q31" s="5" t="str">
+      <c r="Q31" s="14" t="str">
         <f t="shared" ref="Q31" si="4">IF(LEN(Q32)&gt;1,LEFT(Q32,LEN(Q32)-1),"")</f>
         <v/>
       </c>
-      <c r="R31" s="5" t="str">
+      <c r="R31" s="14" t="str">
         <f t="shared" ref="R31" si="5">IF(LEN(R32)&gt;1,LEFT(R32,LEN(R32)-1),"")</f>
         <v/>
       </c>
-      <c r="S31" s="5" t="str">
+      <c r="S31" s="14" t="str">
         <f t="shared" ref="S31" si="6">IF(LEN(S32)&gt;1,LEFT(S32,LEN(S32)-1),"")</f>
         <v/>
       </c>
-      <c r="T31" s="5" t="str">
+      <c r="T31" s="14" t="str">
         <f t="shared" ref="T31" si="7">IF(LEN(T32)&gt;1,LEFT(T32,LEN(T32)-1),"")</f>
         <v/>
       </c>
-      <c r="U31" s="5" t="str">
+      <c r="U31" s="14" t="str">
         <f t="shared" ref="U31" si="8">IF(LEN(U32)&gt;1,LEFT(U32,LEN(U32)-1),"")</f>
         <v/>
       </c>
-      <c r="V31" s="5" t="str">
+      <c r="V31" s="14" t="str">
         <f t="shared" ref="V31" si="9">IF(LEN(V32)&gt;1,LEFT(V32,LEN(V32)-1),"")</f>
         <v/>
       </c>
-      <c r="W31" s="5" t="str">
+      <c r="W31" s="14" t="str">
         <f t="shared" ref="W31" si="10">IF(LEN(W32)&gt;1,LEFT(W32,LEN(W32)-1),"")</f>
         <v/>
       </c>
-      <c r="X31" s="5" t="str">
+      <c r="X31" s="14" t="str">
         <f t="shared" ref="X31" si="11">IF(LEN(X32)&gt;1,LEFT(X32,LEN(X32)-1),"")</f>
         <v/>
       </c>
-      <c r="Y31" s="5" t="str">
+      <c r="Y31" s="14" t="str">
         <f t="shared" ref="Y31" si="12">IF(LEN(Y32)&gt;1,LEFT(Y32,LEN(Y32)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="42.75" hidden="1" customHeight="1" spans="1:25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -5188,88 +5800,88 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="7" t="str">
+      <c r="N32" s="15" t="str">
         <f>CONCATENATE(N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30)</f>
         <v/>
       </c>
-      <c r="O32" s="7" t="str">
+      <c r="O32" s="15" t="str">
         <f t="shared" ref="O32:Y32" si="13">CONCATENATE(O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30)</f>
         <v/>
       </c>
-      <c r="P32" s="7" t="str">
+      <c r="P32" s="15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q32" s="7" t="str">
+      <c r="Q32" s="15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="R32" s="7" t="str">
+      <c r="R32" s="15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="S32" s="7" t="str">
+      <c r="S32" s="15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="T32" s="7" t="str">
+      <c r="T32" s="15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="U32" s="7" t="str">
+      <c r="U32" s="15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="V32" s="7" t="str">
+      <c r="V32" s="15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="W32" s="7" t="str">
+      <c r="W32" s="15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X32" s="7" t="str">
+      <c r="X32" s="15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Y32" s="7" t="str">
+      <c r="Y32" s="15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-    </row>
-    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="C36" s="17"/>
-      <c r="Q36" s="18" t="s">
-        <v>6</v>
+    <row r="33" ht="24" customHeight="1" spans="1:25">
+      <c r="A33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+    </row>
+    <row r="36" ht="15" spans="3:17">
+      <c r="C36" s="8"/>
+      <c r="Q36" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5281,26 +5893,26 @@
     <mergeCell ref="A31:M31"/>
     <mergeCell ref="A33:Y33"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="N31:Y31">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(N31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N2:Y30">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(N2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N31:Y31">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(N31))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="最小项自动生成" prompt="输入信号最小项自动生成" sqref="A1:M30"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位逻辑表达式生成" sqref="N32:Y32 Q36"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号逻辑表达式" prompt="输出信号最终逻辑表达式，直接复制到Logisim中即可自动生成电路" sqref="N31:Y31"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态" prompt="在第一行筛选对应信号为1的条件，最小项列即可包含最终的逻辑表达式" sqref="N34:P1048576 Q38:Q1048576 Q34:Q35"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态" prompt="在第一行筛选对应信号为1的条件，最小项列即可包含最终的逻辑表达式" sqref="Q34:Q35 Q38:Q1048576 N34:P1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="最小项自动生成" prompt="输入信号最小项自动生成" sqref="A1:M30"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出逻辑表达式" prompt="输出逻辑表达式自动生成" sqref="N1:Y30"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>